--- a/data/Engagement_Responses.xlsx
+++ b/data/Engagement_Responses.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$L$778</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$L$867</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1019">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2863,6 +2863,213 @@
   </si>
   <si>
     <t>about 60 adult men and 25 boys</t>
+  </si>
+  <si>
+    <t>Follow-up on health plan meeting requests</t>
+  </si>
+  <si>
+    <t>Submittal of AmeriCorps Grant</t>
+  </si>
+  <si>
+    <t>Meeting with COO &amp; CNO on clinic personnel matters</t>
+  </si>
+  <si>
+    <t>Monthly BMHC clinic leadership meeting</t>
+  </si>
+  <si>
+    <t>Jeffrey Richards</t>
+  </si>
+  <si>
+    <t>Funding discussions and planning</t>
+  </si>
+  <si>
+    <t>Discussion with John Nation on next steps for Manor Project</t>
+  </si>
+  <si>
+    <t>Worked on MARCOM presentation</t>
+  </si>
+  <si>
+    <t>Review and feedback of internship documents for Victor Moreno</t>
+  </si>
+  <si>
+    <t>Unparallel Preparatory Academy</t>
+  </si>
+  <si>
+    <t>Discussion on land use for new facility</t>
+  </si>
+  <si>
+    <t>Discussion on agenda for upcoming UPA board meeting</t>
+  </si>
+  <si>
+    <t>MARCOM presentation discussion for slides needed</t>
+  </si>
+  <si>
+    <t>Hogg Foundation</t>
+  </si>
+  <si>
+    <t>Completed Healthy Mind end of grant report</t>
+  </si>
+  <si>
+    <t>BOLO list for clients on PSH through ECHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLO list and placement </t>
+  </si>
+  <si>
+    <t>2400 minutes</t>
+  </si>
+  <si>
+    <t>total of 40 hours between two weeks of caseworker and client calls and updates for PSH program</t>
+  </si>
+  <si>
+    <t>1680 minutes( 28 hours) over 2 week period</t>
+  </si>
+  <si>
+    <t>case staffing with Kim and file updates</t>
+  </si>
+  <si>
+    <t>PSH file updates and case staffing</t>
+  </si>
+  <si>
+    <t>Reviewed and provided feedback on AmeriCorps narrative changes to meet length requirements</t>
+  </si>
+  <si>
+    <t>Development meeting with City of Manor for planned facility</t>
+  </si>
+  <si>
+    <t>Grants support meeting</t>
+  </si>
+  <si>
+    <t>End of week performance meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to 1 meeting with cameron </t>
+  </si>
+  <si>
+    <t>engaged 15, scheduled 3 appts</t>
+  </si>
+  <si>
+    <t>Child inc Fatherhood program</t>
+  </si>
+  <si>
+    <t>End of week preformance</t>
+  </si>
+  <si>
+    <t>Healthy cuts pop up</t>
+  </si>
+  <si>
+    <t>Data entry and reporting</t>
+  </si>
+  <si>
+    <t>Revision of Diversion Grant budget</t>
+  </si>
+  <si>
+    <t>Reentry Roundtable</t>
+  </si>
+  <si>
+    <t>Community in Practice meeting</t>
+  </si>
+  <si>
+    <t>Discussion on better ways to support grassroot community service organizations</t>
+  </si>
+  <si>
+    <t>Meeting with Texas Interdisciplinary Pre-Med Pathways on Mobile App</t>
+  </si>
+  <si>
+    <t>Timesheets for Trionte Prince and Areebah Mubin</t>
+  </si>
+  <si>
+    <t>Feedback on monthly report on data points connecting to reporting requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researched various health-related training and certifications, started SOAR representative training </t>
+  </si>
+  <si>
+    <t>Outreach 1 to 1 Strategy Meetings</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Navigation Leads 1 to 1 Strategy Meeting</t>
+  </si>
+  <si>
+    <t>End of Week 1 to 1 Performance Review</t>
+  </si>
+  <si>
+    <t>Outreach Onboarding (Jordan Calbert)</t>
+  </si>
+  <si>
+    <t>BMHC + Sustainable Food Center Follow Up Meeting</t>
+  </si>
+  <si>
+    <t>Implementation Studios Planning &amp; Strategy Meeting</t>
+  </si>
+  <si>
+    <t>KAZI 88.7 FM Radio Interview &amp; Preparation</t>
+  </si>
+  <si>
+    <t>BMHC + Community First Village Onsite Outreach Strategy Planning Huddle</t>
+  </si>
+  <si>
+    <t>BMHC + Gudlife Strategy Huddle</t>
+  </si>
+  <si>
+    <t>BMHC + Community First Village Onsite Outreach Strategy Huddle</t>
+  </si>
+  <si>
+    <t>Downtown Austin Community Court Onsite Outreach</t>
+  </si>
+  <si>
+    <t>BMHC + Gudlife Outreach Strategy Huddle</t>
+  </si>
+  <si>
+    <t>KAZI 88.7 FM (Marketing &amp; Exposure)</t>
+  </si>
+  <si>
+    <t>BMHC + KAZI Basketball Tournament (18 blood pressure screenings performed and 2 appointments scheduled).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMHC + KAZI Basketball Tournament </t>
+  </si>
+  <si>
+    <t>BMHC Pflugerville Asset Mapping Activities</t>
+  </si>
+  <si>
+    <t>100 Black Men of Austin Quarterly Partnership Review (QPR)</t>
+  </si>
+  <si>
+    <t>Impact Forms Follow Up Meeting</t>
+  </si>
+  <si>
+    <t>Community First Village Outreach Strategy Huddle</t>
+  </si>
+  <si>
+    <t>Housing Authority of Travis County (Self-Care Day) Outreach Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMHC Tour (Austin Mayor Kirk Watson &amp; Austin City Council Member District 4 "Chito" Vela) </t>
+  </si>
+  <si>
+    <t>Any Baby Can Tour &amp; Partnership Meeting</t>
+  </si>
+  <si>
+    <t>Dominique Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BMHC + Community First Village Neighborhood Care Team Planning Meeting</t>
+  </si>
+  <si>
+    <t>BMHC + Community First Village Neighborhood Care Team Planning Meeting</t>
+  </si>
+  <si>
+    <t>Child Inc Travis County HeadStart Program Fatherhood Program Event (22 blood pressure screenings performed, 2 appointments scheduled, 1 SDOH resource provided).</t>
+  </si>
+  <si>
+    <t>Child Inc Travis County HeadStart Program (Fatherhood Program Event)</t>
+  </si>
+  <si>
+    <t>BMHC + Breakthrough of Central Texas Partnership Discussion</t>
+  </si>
+  <si>
+    <t>Housing Authority of Travis County Quarterly Partnership Review (QPR)</t>
   </si>
 </sst>
 </file>
@@ -2893,7 +3100,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3026,10 +3233,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3037,27 +3244,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3067,7 +3260,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3179,9 +3372,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3243,8 +3433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L778" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$778"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L867" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$867"/>
   <tableColumns count="12">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Date of Activity" id="2"/>
@@ -26643,1439 +26833,4032 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="34">
+      <c r="A778" s="6">
         <v>45721.98612556713</v>
       </c>
-      <c r="B778" s="35">
+      <c r="B778" s="7">
         <v>45709.0</v>
       </c>
-      <c r="C778" s="36" t="s">
+      <c r="C778" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D778" s="36">
+      <c r="D778" s="8">
         <v>300.0</v>
       </c>
-      <c r="E778" s="36" t="s">
+      <c r="E778" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F778" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G778" s="36" t="s">
+      <c r="F778" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G778" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="H778" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J778" s="36">
-        <v>60.0</v>
-      </c>
-      <c r="K778" s="36" t="s">
+      <c r="H778" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J778" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="K778" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="L778" s="37" t="s">
+      <c r="L778" s="13" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="38"/>
-      <c r="B779" s="38"/>
-      <c r="C779" s="38"/>
-      <c r="D779" s="38"/>
-      <c r="E779" s="38"/>
-      <c r="F779" s="38"/>
-      <c r="G779" s="38"/>
-      <c r="H779" s="38"/>
-      <c r="I779" s="38"/>
-      <c r="J779" s="38"/>
-      <c r="K779" s="38"/>
-      <c r="L779" s="38"/>
+      <c r="A779" s="9">
+        <v>45722.624250162036</v>
+      </c>
+      <c r="B779" s="10">
+        <v>45722.0</v>
+      </c>
+      <c r="C779" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D779" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="F779" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G779" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="H779" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I779" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J779" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="780">
-      <c r="A780" s="38"/>
-      <c r="B780" s="38"/>
-      <c r="C780" s="38"/>
-      <c r="D780" s="38"/>
-      <c r="E780" s="38"/>
-      <c r="F780" s="38"/>
-      <c r="G780" s="38"/>
-      <c r="H780" s="38"/>
-      <c r="I780" s="38"/>
-      <c r="J780" s="38"/>
-      <c r="K780" s="38"/>
-      <c r="L780" s="38"/>
+      <c r="A780" s="6">
+        <v>45722.6248156713</v>
+      </c>
+      <c r="B780" s="7">
+        <v>45719.0</v>
+      </c>
+      <c r="C780" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D780" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F780" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G780" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H780" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I780" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J780" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="781">
-      <c r="A781" s="38"/>
-      <c r="B781" s="38"/>
-      <c r="C781" s="38"/>
-      <c r="D781" s="38"/>
-      <c r="E781" s="38"/>
-      <c r="F781" s="38"/>
-      <c r="G781" s="38"/>
-      <c r="H781" s="38"/>
-      <c r="I781" s="38"/>
-      <c r="J781" s="38"/>
-      <c r="K781" s="38"/>
-      <c r="L781" s="38"/>
+      <c r="A781" s="9">
+        <v>45722.62536440972</v>
+      </c>
+      <c r="B781" s="10">
+        <v>45719.0</v>
+      </c>
+      <c r="C781" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D781" s="11">
+        <v>180.0</v>
+      </c>
+      <c r="F781" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G781" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="H781" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I781" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J781" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="782">
-      <c r="A782" s="38"/>
-      <c r="B782" s="38"/>
-      <c r="C782" s="38"/>
-      <c r="D782" s="38"/>
-      <c r="E782" s="38"/>
-      <c r="F782" s="38"/>
-      <c r="G782" s="38"/>
-      <c r="H782" s="38"/>
-      <c r="I782" s="38"/>
-      <c r="J782" s="38"/>
-      <c r="K782" s="38"/>
-      <c r="L782" s="38"/>
+      <c r="A782" s="6">
+        <v>45722.62605608796</v>
+      </c>
+      <c r="B782" s="7">
+        <v>45719.0</v>
+      </c>
+      <c r="C782" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D782" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="E782" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F782" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G782" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="H782" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J782" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="783">
-      <c r="A783" s="38"/>
-      <c r="B783" s="38"/>
-      <c r="C783" s="38"/>
-      <c r="D783" s="38"/>
-      <c r="E783" s="38"/>
-      <c r="F783" s="38"/>
-      <c r="G783" s="38"/>
-      <c r="H783" s="38"/>
-      <c r="I783" s="38"/>
-      <c r="J783" s="38"/>
-      <c r="K783" s="38"/>
-      <c r="L783" s="38"/>
+      <c r="A783" s="9">
+        <v>45722.626844548606</v>
+      </c>
+      <c r="B783" s="10">
+        <v>45719.0</v>
+      </c>
+      <c r="C783" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D783" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="E783" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F783" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G783" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="H783" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J783" s="11">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="784">
-      <c r="A784" s="38"/>
-      <c r="B784" s="38"/>
-      <c r="C784" s="38"/>
-      <c r="D784" s="38"/>
-      <c r="E784" s="38"/>
-      <c r="F784" s="38"/>
-      <c r="G784" s="38"/>
-      <c r="H784" s="38"/>
-      <c r="I784" s="38"/>
-      <c r="J784" s="38"/>
-      <c r="K784" s="38"/>
-      <c r="L784" s="38"/>
+      <c r="A784" s="6">
+        <v>45722.62767760416</v>
+      </c>
+      <c r="B784" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="C784" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D784" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F784" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="G784" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="H784" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I784" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J784" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="785">
-      <c r="A785" s="38"/>
-      <c r="B785" s="38"/>
-      <c r="C785" s="38"/>
-      <c r="D785" s="38"/>
-      <c r="E785" s="38"/>
-      <c r="F785" s="38"/>
-      <c r="G785" s="38"/>
-      <c r="H785" s="38"/>
-      <c r="I785" s="38"/>
-      <c r="J785" s="38"/>
-      <c r="K785" s="38"/>
-      <c r="L785" s="38"/>
+      <c r="A785" s="9">
+        <v>45722.62818383102</v>
+      </c>
+      <c r="B785" s="10">
+        <v>45720.0</v>
+      </c>
+      <c r="C785" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D785" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F785" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G785" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="H785" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J785" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="786">
-      <c r="A786" s="38"/>
-      <c r="B786" s="38"/>
-      <c r="C786" s="38"/>
-      <c r="D786" s="38"/>
-      <c r="E786" s="38"/>
-      <c r="F786" s="38"/>
-      <c r="G786" s="38"/>
-      <c r="H786" s="38"/>
-      <c r="I786" s="38"/>
-      <c r="J786" s="38"/>
-      <c r="K786" s="38"/>
-      <c r="L786" s="38"/>
+      <c r="A786" s="6">
+        <v>45722.6287863426</v>
+      </c>
+      <c r="B786" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="C786" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D786" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="F786" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G786" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="H786" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I786" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J786" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="787">
-      <c r="A787" s="38"/>
-      <c r="B787" s="38"/>
-      <c r="C787" s="38"/>
-      <c r="D787" s="38"/>
-      <c r="E787" s="38"/>
-      <c r="F787" s="38"/>
-      <c r="G787" s="38"/>
-      <c r="H787" s="38"/>
-      <c r="I787" s="38"/>
-      <c r="J787" s="38"/>
-      <c r="K787" s="38"/>
-      <c r="L787" s="38"/>
+      <c r="A787" s="9">
+        <v>45722.62936569445</v>
+      </c>
+      <c r="B787" s="10">
+        <v>45721.0</v>
+      </c>
+      <c r="C787" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D787" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F787" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="G787" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H787" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J787" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="K787" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="788">
-      <c r="A788" s="38"/>
-      <c r="B788" s="38"/>
-      <c r="C788" s="38"/>
-      <c r="D788" s="38"/>
-      <c r="E788" s="38"/>
-      <c r="F788" s="38"/>
-      <c r="G788" s="38"/>
-      <c r="H788" s="38"/>
-      <c r="I788" s="38"/>
-      <c r="J788" s="38"/>
-      <c r="K788" s="38"/>
-      <c r="L788" s="38"/>
+      <c r="A788" s="6">
+        <v>45722.63003542824</v>
+      </c>
+      <c r="B788" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="C788" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D788" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="E788" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F788" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G788" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="H788" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J788" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="789">
-      <c r="A789" s="38"/>
-      <c r="B789" s="38"/>
-      <c r="C789" s="38"/>
-      <c r="D789" s="38"/>
-      <c r="E789" s="38"/>
-      <c r="F789" s="38"/>
-      <c r="G789" s="38"/>
-      <c r="H789" s="38"/>
-      <c r="I789" s="38"/>
-      <c r="J789" s="38"/>
-      <c r="K789" s="38"/>
-      <c r="L789" s="38"/>
+      <c r="A789" s="9">
+        <v>45722.63087454861</v>
+      </c>
+      <c r="B789" s="10">
+        <v>45722.0</v>
+      </c>
+      <c r="C789" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D789" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F789" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="G789" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="H789" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J789" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K789" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="790">
-      <c r="A790" s="38"/>
-      <c r="B790" s="38"/>
-      <c r="C790" s="38"/>
-      <c r="D790" s="38"/>
-      <c r="E790" s="38"/>
-      <c r="F790" s="38"/>
-      <c r="G790" s="38"/>
-      <c r="H790" s="38"/>
-      <c r="I790" s="38"/>
-      <c r="J790" s="38"/>
-      <c r="K790" s="38"/>
-      <c r="L790" s="38"/>
+      <c r="A790" s="6">
+        <v>45722.631450092595</v>
+      </c>
+      <c r="B790" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="C790" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D790" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="F790" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="G790" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="H790" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J790" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K790" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="791">
-      <c r="A791" s="38"/>
-      <c r="B791" s="38"/>
-      <c r="C791" s="38"/>
-      <c r="D791" s="38"/>
-      <c r="E791" s="38"/>
-      <c r="F791" s="38"/>
-      <c r="G791" s="38"/>
-      <c r="H791" s="38"/>
-      <c r="I791" s="38"/>
-      <c r="J791" s="38"/>
-      <c r="K791" s="38"/>
-      <c r="L791" s="38"/>
+      <c r="A791" s="9">
+        <v>45722.63202128472</v>
+      </c>
+      <c r="B791" s="10">
+        <v>45722.0</v>
+      </c>
+      <c r="C791" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D791" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="F791" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G791" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="H791" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I791" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J791" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="792">
-      <c r="A792" s="38"/>
-      <c r="B792" s="38"/>
-      <c r="C792" s="38"/>
-      <c r="D792" s="38"/>
-      <c r="E792" s="38"/>
-      <c r="F792" s="38"/>
-      <c r="G792" s="38"/>
-      <c r="H792" s="38"/>
-      <c r="I792" s="38"/>
-      <c r="J792" s="38"/>
-      <c r="K792" s="38"/>
-      <c r="L792" s="38"/>
+      <c r="A792" s="6">
+        <v>45722.686090312505</v>
+      </c>
+      <c r="B792" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="C792" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D792" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="E792" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F792" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="G792" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="H792" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J792" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="793">
-      <c r="A793" s="38"/>
-      <c r="B793" s="38"/>
-      <c r="C793" s="38"/>
-      <c r="D793" s="38"/>
-      <c r="E793" s="38"/>
-      <c r="F793" s="38"/>
-      <c r="G793" s="38"/>
-      <c r="H793" s="38"/>
-      <c r="I793" s="38"/>
-      <c r="J793" s="38"/>
-      <c r="K793" s="38"/>
-      <c r="L793" s="38"/>
+      <c r="A793" s="9">
+        <v>45723.34862754629</v>
+      </c>
+      <c r="B793" s="10">
+        <v>45743.0</v>
+      </c>
+      <c r="C793" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D793" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F793" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G793" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="H793" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I793" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="J793" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="794">
-      <c r="A794" s="38"/>
-      <c r="B794" s="38"/>
-      <c r="C794" s="38"/>
-      <c r="D794" s="38"/>
-      <c r="E794" s="38"/>
-      <c r="F794" s="38"/>
-      <c r="G794" s="38"/>
-      <c r="H794" s="38"/>
-      <c r="I794" s="38"/>
-      <c r="J794" s="38"/>
-      <c r="K794" s="38"/>
-      <c r="L794" s="38"/>
+      <c r="A794" s="6">
+        <v>45723.35153858796</v>
+      </c>
+      <c r="B794" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="C794" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D794" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="F794" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G794" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="H794" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I794" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J794" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="795">
-      <c r="A795" s="38"/>
-      <c r="B795" s="38"/>
-      <c r="C795" s="38"/>
-      <c r="D795" s="38"/>
-      <c r="E795" s="38"/>
-      <c r="F795" s="38"/>
-      <c r="G795" s="38"/>
-      <c r="H795" s="38"/>
-      <c r="I795" s="38"/>
-      <c r="J795" s="38"/>
-      <c r="K795" s="38"/>
-      <c r="L795" s="38"/>
+      <c r="A795" s="9">
+        <v>45723.35694777778</v>
+      </c>
+      <c r="B795" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C795" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D795" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="F795" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G795" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="H795" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I795" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="J795" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="796">
-      <c r="A796" s="38"/>
-      <c r="B796" s="38"/>
-      <c r="C796" s="38"/>
-      <c r="D796" s="38"/>
-      <c r="E796" s="38"/>
-      <c r="F796" s="38"/>
-      <c r="G796" s="38"/>
-      <c r="H796" s="38"/>
-      <c r="I796" s="38"/>
-      <c r="J796" s="38"/>
-      <c r="K796" s="38"/>
-      <c r="L796" s="38"/>
+      <c r="A796" s="6">
+        <v>45723.43801182871</v>
+      </c>
+      <c r="B796" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="C796" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D796" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="F796" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G796" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="H796" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I796" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J796" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="797">
-      <c r="A797" s="38"/>
-      <c r="B797" s="38"/>
-      <c r="C797" s="38"/>
-      <c r="D797" s="38"/>
-      <c r="E797" s="38"/>
-      <c r="F797" s="38"/>
-      <c r="G797" s="38"/>
-      <c r="H797" s="38"/>
-      <c r="I797" s="38"/>
-      <c r="J797" s="38"/>
-      <c r="K797" s="38"/>
-      <c r="L797" s="38"/>
+      <c r="A797" s="9">
+        <v>45723.438895127314</v>
+      </c>
+      <c r="B797" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="C797" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D797" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F797" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G797" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H797" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I797" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J797" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="798">
-      <c r="A798" s="38"/>
-      <c r="B798" s="38"/>
-      <c r="C798" s="38"/>
-      <c r="D798" s="38"/>
-      <c r="E798" s="38"/>
-      <c r="F798" s="38"/>
-      <c r="G798" s="38"/>
-      <c r="H798" s="38"/>
-      <c r="I798" s="38"/>
-      <c r="J798" s="38"/>
-      <c r="K798" s="38"/>
-      <c r="L798" s="38"/>
+      <c r="A798" s="6">
+        <v>45723.439813888894</v>
+      </c>
+      <c r="B798" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="C798" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D798" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F798" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="G798" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="H798" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J798" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K798" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="799">
-      <c r="A799" s="38"/>
-      <c r="B799" s="38"/>
-      <c r="C799" s="38"/>
-      <c r="D799" s="38"/>
-      <c r="E799" s="38"/>
-      <c r="F799" s="38"/>
-      <c r="G799" s="38"/>
-      <c r="H799" s="38"/>
-      <c r="I799" s="38"/>
-      <c r="J799" s="38"/>
-      <c r="K799" s="38"/>
-      <c r="L799" s="38"/>
+      <c r="A799" s="9">
+        <v>45723.48370592593</v>
+      </c>
+      <c r="B799" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="C799" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D799" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="E799" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F799" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G799" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="H799" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J799" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="800">
-      <c r="A800" s="38"/>
-      <c r="B800" s="38"/>
-      <c r="C800" s="38"/>
-      <c r="D800" s="38"/>
-      <c r="E800" s="38"/>
-      <c r="F800" s="38"/>
-      <c r="G800" s="38"/>
-      <c r="H800" s="38"/>
-      <c r="I800" s="38"/>
-      <c r="J800" s="38"/>
-      <c r="K800" s="38"/>
-      <c r="L800" s="38"/>
+      <c r="A800" s="6">
+        <v>45723.494522106485</v>
+      </c>
+      <c r="B800" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="C800" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D800" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F800" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G800" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="H800" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J800" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="801">
-      <c r="A801" s="38"/>
-      <c r="B801" s="38"/>
-      <c r="C801" s="38"/>
-      <c r="D801" s="38"/>
-      <c r="E801" s="38"/>
-      <c r="F801" s="38"/>
-      <c r="G801" s="38"/>
-      <c r="H801" s="38"/>
-      <c r="I801" s="38"/>
-      <c r="J801" s="38"/>
-      <c r="K801" s="38"/>
-      <c r="L801" s="38"/>
+      <c r="A801" s="9">
+        <v>45723.49505972222</v>
+      </c>
+      <c r="B801" s="10">
+        <v>45713.0</v>
+      </c>
+      <c r="C801" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D801" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F801" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G801" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="H801" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J801" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="802">
-      <c r="A802" s="38"/>
-      <c r="B802" s="38"/>
-      <c r="C802" s="38"/>
-      <c r="D802" s="38"/>
-      <c r="E802" s="38"/>
-      <c r="F802" s="38"/>
-      <c r="G802" s="38"/>
-      <c r="H802" s="38"/>
-      <c r="I802" s="38"/>
-      <c r="J802" s="38"/>
-      <c r="K802" s="38"/>
-      <c r="L802" s="38"/>
+      <c r="A802" s="6">
+        <v>45723.495663298614</v>
+      </c>
+      <c r="B802" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="C802" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D802" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F802" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G802" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="H802" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J802" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="803">
-      <c r="A803" s="38"/>
-      <c r="B803" s="38"/>
-      <c r="C803" s="38"/>
-      <c r="D803" s="38"/>
-      <c r="E803" s="38"/>
-      <c r="F803" s="38"/>
-      <c r="G803" s="38"/>
-      <c r="H803" s="38"/>
-      <c r="I803" s="38"/>
-      <c r="J803" s="38"/>
-      <c r="K803" s="38"/>
-      <c r="L803" s="38"/>
+      <c r="A803" s="9">
+        <v>45723.496778518514</v>
+      </c>
+      <c r="B803" s="10">
+        <v>45743.0</v>
+      </c>
+      <c r="C803" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D803" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="F803" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G803" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H803" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J803" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="L803" s="12" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="804">
-      <c r="A804" s="38"/>
-      <c r="B804" s="38"/>
-      <c r="C804" s="38"/>
-      <c r="D804" s="38"/>
-      <c r="E804" s="38"/>
-      <c r="F804" s="38"/>
-      <c r="G804" s="38"/>
-      <c r="H804" s="38"/>
-      <c r="I804" s="38"/>
-      <c r="J804" s="38"/>
-      <c r="K804" s="38"/>
-      <c r="L804" s="38"/>
+      <c r="A804" s="6">
+        <v>45723.49769856481</v>
+      </c>
+      <c r="B804" s="7">
+        <v>45743.0</v>
+      </c>
+      <c r="C804" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D804" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="F804" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G804" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="H804" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J804" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="L804" s="13">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="805">
-      <c r="A805" s="38"/>
-      <c r="B805" s="38"/>
-      <c r="C805" s="38"/>
-      <c r="D805" s="38"/>
-      <c r="E805" s="38"/>
-      <c r="F805" s="38"/>
-      <c r="G805" s="38"/>
-      <c r="H805" s="38"/>
-      <c r="I805" s="38"/>
-      <c r="J805" s="38"/>
-      <c r="K805" s="38"/>
-      <c r="L805" s="38"/>
+      <c r="A805" s="9">
+        <v>45723.498205462965</v>
+      </c>
+      <c r="B805" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C805" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D805" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F805" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G805" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="H805" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J805" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="806">
-      <c r="A806" s="38"/>
-      <c r="B806" s="38"/>
-      <c r="C806" s="38"/>
-      <c r="D806" s="38"/>
-      <c r="E806" s="38"/>
-      <c r="F806" s="38"/>
-      <c r="G806" s="38"/>
-      <c r="H806" s="38"/>
-      <c r="I806" s="38"/>
-      <c r="J806" s="38"/>
-      <c r="K806" s="38"/>
-      <c r="L806" s="38"/>
+      <c r="A806" s="6">
+        <v>45723.499078368055</v>
+      </c>
+      <c r="B806" s="7">
+        <v>45713.0</v>
+      </c>
+      <c r="C806" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D806" s="8">
+        <v>360.0</v>
+      </c>
+      <c r="F806" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G806" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="H806" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J806" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="K806" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L806" s="13">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="807">
-      <c r="A807" s="38"/>
-      <c r="B807" s="38"/>
-      <c r="C807" s="38"/>
-      <c r="D807" s="38"/>
-      <c r="E807" s="38"/>
-      <c r="F807" s="38"/>
-      <c r="G807" s="38"/>
-      <c r="H807" s="38"/>
-      <c r="I807" s="38"/>
-      <c r="J807" s="38"/>
-      <c r="K807" s="38"/>
-      <c r="L807" s="38"/>
+      <c r="A807" s="9">
+        <v>45723.50106174768</v>
+      </c>
+      <c r="B807" s="10">
+        <v>45711.0</v>
+      </c>
+      <c r="C807" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D807" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F807" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G807" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="H807" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J807" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="808">
-      <c r="A808" s="38"/>
-      <c r="B808" s="38"/>
-      <c r="C808" s="38"/>
-      <c r="D808" s="38"/>
-      <c r="E808" s="38"/>
-      <c r="F808" s="38"/>
-      <c r="G808" s="38"/>
-      <c r="H808" s="38"/>
-      <c r="I808" s="38"/>
-      <c r="J808" s="38"/>
-      <c r="K808" s="38"/>
-      <c r="L808" s="38"/>
+      <c r="A808" s="6">
+        <v>45723.50159180556</v>
+      </c>
+      <c r="B808" s="7">
+        <v>45704.0</v>
+      </c>
+      <c r="C808" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D808" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="F808" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G808" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="H808" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J808" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="809">
-      <c r="A809" s="38"/>
-      <c r="B809" s="38"/>
-      <c r="C809" s="38"/>
-      <c r="D809" s="38"/>
-      <c r="E809" s="38"/>
-      <c r="F809" s="38"/>
-      <c r="G809" s="38"/>
-      <c r="H809" s="38"/>
-      <c r="I809" s="38"/>
-      <c r="J809" s="38"/>
-      <c r="K809" s="38"/>
-      <c r="L809" s="38"/>
+      <c r="A809" s="9">
+        <v>45723.50280141203</v>
+      </c>
+      <c r="B809" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C809" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D809" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="F809" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G809" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="H809" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J809" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="K809" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L809" s="12">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="810">
-      <c r="A810" s="38"/>
-      <c r="B810" s="38"/>
-      <c r="C810" s="38"/>
-      <c r="D810" s="38"/>
-      <c r="E810" s="38"/>
-      <c r="F810" s="38"/>
-      <c r="G810" s="38"/>
-      <c r="H810" s="38"/>
-      <c r="I810" s="38"/>
-      <c r="J810" s="38"/>
-      <c r="K810" s="38"/>
-      <c r="L810" s="38"/>
+      <c r="A810" s="6">
+        <v>45723.58456717593</v>
+      </c>
+      <c r="B810" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="C810" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D810" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F810" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="G810" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="H810" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I810" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J810" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="811">
-      <c r="A811" s="38"/>
-      <c r="B811" s="38"/>
-      <c r="C811" s="38"/>
-      <c r="D811" s="38"/>
-      <c r="E811" s="38"/>
-      <c r="F811" s="38"/>
-      <c r="G811" s="38"/>
-      <c r="H811" s="38"/>
-      <c r="I811" s="38"/>
-      <c r="J811" s="38"/>
-      <c r="K811" s="38"/>
-      <c r="L811" s="38"/>
+      <c r="A811" s="9">
+        <v>45723.58512483796</v>
+      </c>
+      <c r="B811" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="C811" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D811" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F811" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="G811" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="H811" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J811" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K811" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="812">
-      <c r="A812" s="38"/>
-      <c r="B812" s="38"/>
-      <c r="C812" s="38"/>
-      <c r="D812" s="38"/>
-      <c r="E812" s="38"/>
-      <c r="F812" s="38"/>
-      <c r="G812" s="38"/>
-      <c r="H812" s="38"/>
-      <c r="I812" s="38"/>
-      <c r="J812" s="38"/>
-      <c r="K812" s="38"/>
-      <c r="L812" s="38"/>
+      <c r="A812" s="6">
+        <v>45723.718201655094</v>
+      </c>
+      <c r="B812" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="C812" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D812" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F812" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G812" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="H812" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J812" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K812" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="813">
-      <c r="A813" s="38"/>
-      <c r="B813" s="38"/>
-      <c r="C813" s="38"/>
-      <c r="D813" s="38"/>
-      <c r="E813" s="38"/>
-      <c r="F813" s="38"/>
-      <c r="G813" s="38"/>
-      <c r="H813" s="38"/>
-      <c r="I813" s="38"/>
-      <c r="J813" s="38"/>
-      <c r="K813" s="38"/>
-      <c r="L813" s="38"/>
+      <c r="A813" s="9">
+        <v>45723.71884273148</v>
+      </c>
+      <c r="B813" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="C813" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D813" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="E813" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F813" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G813" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="H813" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J813" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="814">
-      <c r="A814" s="38"/>
-      <c r="B814" s="38"/>
-      <c r="C814" s="38"/>
-      <c r="D814" s="38"/>
-      <c r="E814" s="38"/>
-      <c r="F814" s="38"/>
-      <c r="G814" s="38"/>
-      <c r="H814" s="38"/>
-      <c r="I814" s="38"/>
-      <c r="J814" s="38"/>
-      <c r="K814" s="38"/>
-      <c r="L814" s="38"/>
+      <c r="A814" s="6">
+        <v>45723.72351563658</v>
+      </c>
+      <c r="B814" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="C814" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D814" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="E814" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F814" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G814" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="H814" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J814" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="815">
-      <c r="A815" s="38"/>
-      <c r="B815" s="38"/>
-      <c r="C815" s="38"/>
-      <c r="D815" s="38"/>
-      <c r="E815" s="38"/>
-      <c r="F815" s="38"/>
-      <c r="G815" s="38"/>
-      <c r="H815" s="38"/>
-      <c r="I815" s="38"/>
-      <c r="J815" s="38"/>
-      <c r="K815" s="38"/>
-      <c r="L815" s="38"/>
+      <c r="A815" s="9">
+        <v>45723.73706747685</v>
+      </c>
+      <c r="B815" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="C815" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D815" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="E815" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F815" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G815" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="H815" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J815" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="816">
-      <c r="A816" s="38"/>
-      <c r="B816" s="38"/>
-      <c r="C816" s="38"/>
-      <c r="D816" s="38"/>
-      <c r="E816" s="38"/>
-      <c r="F816" s="38"/>
-      <c r="G816" s="38"/>
-      <c r="H816" s="38"/>
-      <c r="I816" s="38"/>
-      <c r="J816" s="38"/>
-      <c r="K816" s="38"/>
-      <c r="L816" s="38"/>
+      <c r="A816" s="6">
+        <v>45725.88076270833</v>
+      </c>
+      <c r="B816" s="7">
+        <v>45725.0</v>
+      </c>
+      <c r="C816" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D816" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="F816" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G816" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="H816" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I816" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J816" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="817">
-      <c r="A817" s="38"/>
-      <c r="B817" s="38"/>
-      <c r="C817" s="38"/>
-      <c r="D817" s="38"/>
-      <c r="E817" s="38"/>
-      <c r="F817" s="38"/>
-      <c r="G817" s="38"/>
-      <c r="H817" s="38"/>
-      <c r="I817" s="38"/>
-      <c r="J817" s="38"/>
-      <c r="K817" s="38"/>
-      <c r="L817" s="38"/>
+      <c r="A817" s="9">
+        <v>45726.41473063658</v>
+      </c>
+      <c r="B817" s="10">
+        <v>45691.0</v>
+      </c>
+      <c r="C817" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D817" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F817" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G817" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H817" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I817" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J817" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="818">
-      <c r="A818" s="38"/>
-      <c r="B818" s="38"/>
-      <c r="C818" s="38"/>
-      <c r="D818" s="38"/>
-      <c r="E818" s="38"/>
-      <c r="F818" s="38"/>
-      <c r="G818" s="38"/>
-      <c r="H818" s="38"/>
-      <c r="I818" s="38"/>
-      <c r="J818" s="38"/>
-      <c r="K818" s="38"/>
-      <c r="L818" s="38"/>
+      <c r="A818" s="6">
+        <v>45726.4161284838</v>
+      </c>
+      <c r="B818" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="C818" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D818" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F818" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G818" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H818" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J818" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="819">
-      <c r="A819" s="38"/>
-      <c r="B819" s="38"/>
-      <c r="C819" s="38"/>
-      <c r="D819" s="38"/>
-      <c r="E819" s="38"/>
-      <c r="F819" s="38"/>
-      <c r="G819" s="38"/>
-      <c r="H819" s="38"/>
-      <c r="I819" s="38"/>
-      <c r="J819" s="38"/>
-      <c r="K819" s="38"/>
-      <c r="L819" s="38"/>
+      <c r="A819" s="9">
+        <v>45726.41650083334</v>
+      </c>
+      <c r="B819" s="10">
+        <v>45698.0</v>
+      </c>
+      <c r="C819" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D819" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F819" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G819" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H819" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J819" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="820">
-      <c r="A820" s="38"/>
-      <c r="B820" s="38"/>
-      <c r="C820" s="38"/>
-      <c r="D820" s="38"/>
-      <c r="E820" s="38"/>
-      <c r="F820" s="38"/>
-      <c r="G820" s="38"/>
-      <c r="H820" s="38"/>
-      <c r="I820" s="38"/>
-      <c r="J820" s="38"/>
-      <c r="K820" s="38"/>
-      <c r="L820" s="38"/>
+      <c r="A820" s="6">
+        <v>45726.41695342593</v>
+      </c>
+      <c r="B820" s="7">
+        <v>45702.0</v>
+      </c>
+      <c r="C820" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D820" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F820" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G820" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H820" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J820" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="821">
-      <c r="A821" s="38"/>
-      <c r="B821" s="38"/>
-      <c r="C821" s="38"/>
-      <c r="D821" s="38"/>
-      <c r="E821" s="38"/>
-      <c r="F821" s="38"/>
-      <c r="G821" s="38"/>
-      <c r="H821" s="38"/>
-      <c r="I821" s="38"/>
-      <c r="J821" s="38"/>
-      <c r="K821" s="38"/>
-      <c r="L821" s="38"/>
+      <c r="A821" s="9">
+        <v>45726.4173725</v>
+      </c>
+      <c r="B821" s="10">
+        <v>45705.0</v>
+      </c>
+      <c r="C821" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D821" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F821" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G821" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H821" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J821" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="822">
-      <c r="A822" s="38"/>
-      <c r="B822" s="38"/>
-      <c r="C822" s="38"/>
-      <c r="D822" s="38"/>
-      <c r="E822" s="38"/>
-      <c r="F822" s="38"/>
-      <c r="G822" s="38"/>
-      <c r="H822" s="38"/>
-      <c r="I822" s="38"/>
-      <c r="J822" s="38"/>
-      <c r="K822" s="38"/>
-      <c r="L822" s="38"/>
+      <c r="A822" s="6">
+        <v>45726.41787384259</v>
+      </c>
+      <c r="B822" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="C822" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D822" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F822" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G822" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H822" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J822" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="823">
-      <c r="A823" s="38"/>
-      <c r="B823" s="38"/>
-      <c r="C823" s="38"/>
-      <c r="D823" s="38"/>
-      <c r="E823" s="38"/>
-      <c r="F823" s="38"/>
-      <c r="G823" s="38"/>
-      <c r="H823" s="38"/>
-      <c r="I823" s="38"/>
-      <c r="J823" s="38"/>
-      <c r="K823" s="38"/>
-      <c r="L823" s="38"/>
+      <c r="A823" s="9">
+        <v>45726.418220011576</v>
+      </c>
+      <c r="B823" s="10">
+        <v>45712.0</v>
+      </c>
+      <c r="C823" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D823" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F823" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G823" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H823" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J823" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="824">
-      <c r="A824" s="38"/>
-      <c r="B824" s="38"/>
-      <c r="C824" s="38"/>
-      <c r="D824" s="38"/>
-      <c r="E824" s="38"/>
-      <c r="F824" s="38"/>
-      <c r="G824" s="38"/>
-      <c r="H824" s="38"/>
-      <c r="I824" s="38"/>
-      <c r="J824" s="38"/>
-      <c r="K824" s="38"/>
-      <c r="L824" s="38"/>
+      <c r="A824" s="6">
+        <v>45726.41876368056</v>
+      </c>
+      <c r="B824" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="C824" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D824" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F824" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G824" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H824" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J824" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="825">
-      <c r="A825" s="38"/>
-      <c r="B825" s="38"/>
-      <c r="C825" s="38"/>
-      <c r="D825" s="38"/>
-      <c r="E825" s="38"/>
-      <c r="F825" s="38"/>
-      <c r="G825" s="38"/>
-      <c r="H825" s="38"/>
-      <c r="I825" s="38"/>
-      <c r="J825" s="38"/>
-      <c r="K825" s="38"/>
-      <c r="L825" s="38"/>
+      <c r="A825" s="9">
+        <v>45726.42047824074</v>
+      </c>
+      <c r="B825" s="10">
+        <v>45693.0</v>
+      </c>
+      <c r="C825" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D825" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F825" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G825" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H825" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I825" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J825" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="826">
-      <c r="A826" s="38"/>
-      <c r="B826" s="38"/>
-      <c r="C826" s="38"/>
-      <c r="D826" s="38"/>
-      <c r="E826" s="38"/>
-      <c r="F826" s="38"/>
-      <c r="G826" s="38"/>
-      <c r="H826" s="38"/>
-      <c r="I826" s="38"/>
-      <c r="J826" s="38"/>
-      <c r="K826" s="38"/>
-      <c r="L826" s="38"/>
+      <c r="A826" s="6">
+        <v>45726.42085002315</v>
+      </c>
+      <c r="B826" s="7">
+        <v>45700.0</v>
+      </c>
+      <c r="C826" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D826" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F826" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G826" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H826" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I826" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J826" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="827">
-      <c r="A827" s="38"/>
-      <c r="B827" s="38"/>
-      <c r="C827" s="38"/>
-      <c r="D827" s="38"/>
-      <c r="E827" s="38"/>
-      <c r="F827" s="38"/>
-      <c r="G827" s="38"/>
-      <c r="H827" s="38"/>
-      <c r="I827" s="38"/>
-      <c r="J827" s="38"/>
-      <c r="K827" s="38"/>
-      <c r="L827" s="38"/>
+      <c r="A827" s="9">
+        <v>45726.42158721064</v>
+      </c>
+      <c r="B827" s="10">
+        <v>45707.0</v>
+      </c>
+      <c r="C827" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D827" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F827" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G827" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H827" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I827" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J827" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="828">
-      <c r="A828" s="38"/>
-      <c r="B828" s="38"/>
-      <c r="C828" s="38"/>
-      <c r="D828" s="38"/>
-      <c r="E828" s="38"/>
-      <c r="F828" s="38"/>
-      <c r="G828" s="38"/>
-      <c r="H828" s="38"/>
-      <c r="I828" s="38"/>
-      <c r="J828" s="38"/>
-      <c r="K828" s="38"/>
-      <c r="L828" s="38"/>
+      <c r="A828" s="6">
+        <v>45726.422051435184</v>
+      </c>
+      <c r="B828" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D828" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F828" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G828" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H828" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I828" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J828" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="829">
-      <c r="A829" s="38"/>
-      <c r="B829" s="38"/>
-      <c r="C829" s="38"/>
-      <c r="D829" s="38"/>
-      <c r="E829" s="38"/>
-      <c r="F829" s="38"/>
-      <c r="G829" s="38"/>
-      <c r="H829" s="38"/>
-      <c r="I829" s="38"/>
-      <c r="J829" s="38"/>
-      <c r="K829" s="38"/>
-      <c r="L829" s="38"/>
+      <c r="A829" s="9">
+        <v>45726.42392763888</v>
+      </c>
+      <c r="B829" s="10">
+        <v>45694.0</v>
+      </c>
+      <c r="C829" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D829" s="11">
+        <v>240.0</v>
+      </c>
+      <c r="F829" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G829" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="H829" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J829" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K829" s="11" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="830">
-      <c r="A830" s="38"/>
-      <c r="B830" s="38"/>
-      <c r="C830" s="38"/>
-      <c r="D830" s="38"/>
-      <c r="E830" s="38"/>
-      <c r="F830" s="38"/>
-      <c r="G830" s="38"/>
-      <c r="H830" s="38"/>
-      <c r="I830" s="38"/>
-      <c r="J830" s="38"/>
-      <c r="K830" s="38"/>
-      <c r="L830" s="38"/>
+      <c r="A830" s="6">
+        <v>45726.4242425</v>
+      </c>
+      <c r="B830" s="7">
+        <v>45701.0</v>
+      </c>
+      <c r="C830" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D830" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="F830" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G830" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="H830" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J830" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="831">
-      <c r="A831" s="38"/>
-      <c r="B831" s="38"/>
-      <c r="C831" s="38"/>
-      <c r="D831" s="38"/>
-      <c r="E831" s="38"/>
-      <c r="F831" s="38"/>
-      <c r="G831" s="38"/>
-      <c r="H831" s="38"/>
-      <c r="I831" s="38"/>
-      <c r="J831" s="38"/>
-      <c r="K831" s="38"/>
-      <c r="L831" s="38"/>
+      <c r="A831" s="9">
+        <v>45726.42458672453</v>
+      </c>
+      <c r="B831" s="10">
+        <v>45708.0</v>
+      </c>
+      <c r="C831" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D831" s="11">
+        <v>240.0</v>
+      </c>
+      <c r="F831" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G831" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="H831" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I831" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="J831" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="832">
-      <c r="A832" s="38"/>
-      <c r="B832" s="38"/>
-      <c r="C832" s="38"/>
-      <c r="D832" s="38"/>
-      <c r="E832" s="38"/>
-      <c r="F832" s="38"/>
-      <c r="G832" s="38"/>
-      <c r="H832" s="38"/>
-      <c r="I832" s="38"/>
-      <c r="J832" s="38"/>
-      <c r="K832" s="38"/>
-      <c r="L832" s="38"/>
+      <c r="A832" s="6">
+        <v>45726.42593892361</v>
+      </c>
+      <c r="B832" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="C832" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D832" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="F832" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G832" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="H832" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I832" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="J832" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="833">
-      <c r="A833" s="38"/>
-      <c r="B833" s="38"/>
-      <c r="C833" s="38"/>
-      <c r="D833" s="38"/>
-      <c r="E833" s="38"/>
-      <c r="F833" s="38"/>
-      <c r="G833" s="38"/>
-      <c r="H833" s="38"/>
-      <c r="I833" s="38"/>
-      <c r="J833" s="38"/>
-      <c r="K833" s="38"/>
-      <c r="L833" s="38"/>
+      <c r="A833" s="9">
+        <v>45726.4285087037</v>
+      </c>
+      <c r="B833" s="10">
+        <v>45693.0</v>
+      </c>
+      <c r="C833" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D833" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F833" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G833" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="H833" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I833" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="J833" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="834">
-      <c r="A834" s="38"/>
-      <c r="B834" s="38"/>
-      <c r="C834" s="38"/>
-      <c r="D834" s="38"/>
-      <c r="E834" s="38"/>
-      <c r="F834" s="38"/>
-      <c r="G834" s="38"/>
-      <c r="H834" s="38"/>
-      <c r="I834" s="38"/>
-      <c r="J834" s="38"/>
-      <c r="K834" s="38"/>
-      <c r="L834" s="38"/>
+      <c r="A834" s="6">
+        <v>45726.42913739583</v>
+      </c>
+      <c r="B834" s="7">
+        <v>45700.0</v>
+      </c>
+      <c r="C834" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D834" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F834" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G834" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="H834" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J834" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="835">
-      <c r="A835" s="38"/>
-      <c r="B835" s="38"/>
-      <c r="C835" s="38"/>
-      <c r="D835" s="38"/>
-      <c r="E835" s="38"/>
-      <c r="F835" s="38"/>
-      <c r="G835" s="38"/>
-      <c r="H835" s="38"/>
-      <c r="I835" s="38"/>
-      <c r="J835" s="38"/>
-      <c r="K835" s="38"/>
-      <c r="L835" s="38"/>
+      <c r="A835" s="9">
+        <v>45726.42950083333</v>
+      </c>
+      <c r="B835" s="10">
+        <v>45707.0</v>
+      </c>
+      <c r="C835" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D835" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F835" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G835" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="H835" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I835" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="J835" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="836">
-      <c r="A836" s="38"/>
-      <c r="B836" s="38"/>
-      <c r="C836" s="38"/>
-      <c r="D836" s="38"/>
-      <c r="E836" s="38"/>
-      <c r="F836" s="38"/>
-      <c r="G836" s="38"/>
-      <c r="H836" s="38"/>
-      <c r="I836" s="38"/>
-      <c r="J836" s="38"/>
-      <c r="K836" s="38"/>
-      <c r="L836" s="38"/>
+      <c r="A836" s="6">
+        <v>45726.4298183912</v>
+      </c>
+      <c r="B836" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="C836" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D836" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F836" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G836" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="H836" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I836" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="J836" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="837">
-      <c r="A837" s="38"/>
-      <c r="B837" s="38"/>
-      <c r="C837" s="38"/>
-      <c r="D837" s="38"/>
-      <c r="E837" s="38"/>
-      <c r="F837" s="38"/>
-      <c r="G837" s="38"/>
-      <c r="H837" s="38"/>
-      <c r="I837" s="38"/>
-      <c r="J837" s="38"/>
-      <c r="K837" s="38"/>
-      <c r="L837" s="38"/>
+      <c r="A837" s="9">
+        <v>45726.43071545139</v>
+      </c>
+      <c r="B837" s="10">
+        <v>45695.0</v>
+      </c>
+      <c r="C837" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D837" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F837" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G837" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="H837" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J837" s="11" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="838">
-      <c r="A838" s="38"/>
-      <c r="B838" s="38"/>
-      <c r="C838" s="38"/>
-      <c r="D838" s="38"/>
-      <c r="E838" s="38"/>
-      <c r="F838" s="38"/>
-      <c r="G838" s="38"/>
-      <c r="H838" s="38"/>
-      <c r="I838" s="38"/>
-      <c r="J838" s="38"/>
-      <c r="K838" s="38"/>
-      <c r="L838" s="38"/>
+      <c r="A838" s="6">
+        <v>45726.431070555554</v>
+      </c>
+      <c r="B838" s="7">
+        <v>45702.0</v>
+      </c>
+      <c r="C838" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D838" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F838" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G838" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="H838" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I838" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="J838" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="839">
-      <c r="A839" s="38"/>
-      <c r="B839" s="38"/>
-      <c r="C839" s="38"/>
-      <c r="D839" s="38"/>
-      <c r="E839" s="38"/>
-      <c r="F839" s="38"/>
-      <c r="G839" s="38"/>
-      <c r="H839" s="38"/>
-      <c r="I839" s="38"/>
-      <c r="J839" s="38"/>
-      <c r="K839" s="38"/>
-      <c r="L839" s="38"/>
+      <c r="A839" s="9">
+        <v>45726.43163234954</v>
+      </c>
+      <c r="B839" s="10">
+        <v>45702.0</v>
+      </c>
+      <c r="C839" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D839" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F839" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G839" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="H839" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I839" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="J839" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="840">
-      <c r="A840" s="38"/>
-      <c r="B840" s="38"/>
-      <c r="C840" s="38"/>
-      <c r="D840" s="38"/>
-      <c r="E840" s="38"/>
-      <c r="F840" s="38"/>
-      <c r="G840" s="38"/>
-      <c r="H840" s="38"/>
-      <c r="I840" s="38"/>
-      <c r="J840" s="38"/>
-      <c r="K840" s="38"/>
-      <c r="L840" s="38"/>
+      <c r="A840" s="6">
+        <v>45726.43269408565</v>
+      </c>
+      <c r="B840" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="C840" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D840" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F840" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G840" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="H840" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I840" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="J840" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="841">
-      <c r="A841" s="38"/>
-      <c r="B841" s="38"/>
-      <c r="C841" s="38"/>
-      <c r="D841" s="38"/>
-      <c r="E841" s="38"/>
-      <c r="F841" s="38"/>
-      <c r="G841" s="38"/>
-      <c r="H841" s="38"/>
-      <c r="I841" s="38"/>
-      <c r="J841" s="38"/>
-      <c r="K841" s="38"/>
-      <c r="L841" s="38"/>
+      <c r="A841" s="9">
+        <v>45726.43307633101</v>
+      </c>
+      <c r="B841" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C841" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D841" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F841" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G841" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="H841" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I841" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="J841" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="842">
-      <c r="A842" s="38"/>
-      <c r="B842" s="38"/>
-      <c r="C842" s="38"/>
-      <c r="D842" s="38"/>
-      <c r="E842" s="38"/>
-      <c r="F842" s="38"/>
-      <c r="G842" s="38"/>
-      <c r="H842" s="38"/>
-      <c r="I842" s="38"/>
-      <c r="J842" s="38"/>
-      <c r="K842" s="38"/>
-      <c r="L842" s="38"/>
+      <c r="A842" s="6">
+        <v>45726.43486498843</v>
+      </c>
+      <c r="B842" s="7">
+        <v>45696.0</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D842" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="E842" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="F842" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G842" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="H842" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J842" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="843">
-      <c r="A843" s="38"/>
-      <c r="B843" s="38"/>
-      <c r="C843" s="38"/>
-      <c r="D843" s="38"/>
-      <c r="E843" s="38"/>
-      <c r="F843" s="38"/>
-      <c r="G843" s="38"/>
-      <c r="H843" s="38"/>
-      <c r="I843" s="38"/>
-      <c r="J843" s="38"/>
-      <c r="K843" s="38"/>
-      <c r="L843" s="38"/>
+      <c r="A843" s="9">
+        <v>45726.436651979166</v>
+      </c>
+      <c r="B843" s="10">
+        <v>45691.0</v>
+      </c>
+      <c r="C843" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D843" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="E843" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="F843" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G843" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="H843" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J843" s="11">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="844">
-      <c r="A844" s="38"/>
-      <c r="B844" s="38"/>
-      <c r="C844" s="38"/>
-      <c r="D844" s="38"/>
-      <c r="E844" s="38"/>
-      <c r="F844" s="38"/>
-      <c r="G844" s="38"/>
-      <c r="H844" s="38"/>
-      <c r="I844" s="38"/>
-      <c r="J844" s="38"/>
-      <c r="K844" s="38"/>
-      <c r="L844" s="38"/>
+      <c r="A844" s="6">
+        <v>45726.43756101852</v>
+      </c>
+      <c r="B844" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D844" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F844" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G844" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="H844" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I844" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="J844" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="845">
-      <c r="A845" s="38"/>
-      <c r="B845" s="38"/>
-      <c r="C845" s="38"/>
-      <c r="D845" s="38"/>
-      <c r="E845" s="38"/>
-      <c r="F845" s="38"/>
-      <c r="G845" s="38"/>
-      <c r="H845" s="38"/>
-      <c r="I845" s="38"/>
-      <c r="J845" s="38"/>
-      <c r="K845" s="38"/>
-      <c r="L845" s="38"/>
+      <c r="A845" s="9">
+        <v>45726.43863261574</v>
+      </c>
+      <c r="B845" s="10">
+        <v>45692.0</v>
+      </c>
+      <c r="C845" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="D845" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F845" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G845" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="H845" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J845" s="11">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="846">
-      <c r="A846" s="38"/>
-      <c r="B846" s="38"/>
-      <c r="C846" s="38"/>
-      <c r="D846" s="38"/>
-      <c r="E846" s="38"/>
-      <c r="F846" s="38"/>
-      <c r="G846" s="38"/>
-      <c r="H846" s="38"/>
-      <c r="I846" s="38"/>
-      <c r="J846" s="38"/>
-      <c r="K846" s="38"/>
-      <c r="L846" s="38"/>
+      <c r="A846" s="6">
+        <v>45726.43961699074</v>
+      </c>
+      <c r="B846" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D846" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F846" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G846" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="H846" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I846" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="J846" s="8">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="847">
-      <c r="A847" s="38"/>
-      <c r="B847" s="38"/>
-      <c r="C847" s="38"/>
-      <c r="D847" s="38"/>
-      <c r="E847" s="38"/>
-      <c r="F847" s="38"/>
-      <c r="G847" s="38"/>
-      <c r="H847" s="38"/>
-      <c r="I847" s="38"/>
-      <c r="J847" s="38"/>
-      <c r="K847" s="38"/>
-      <c r="L847" s="38"/>
+      <c r="A847" s="9">
+        <v>45726.44183166667</v>
+      </c>
+      <c r="B847" s="10">
+        <v>45694.0</v>
+      </c>
+      <c r="C847" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D847" s="11">
+        <v>240.0</v>
+      </c>
+      <c r="E847" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F847" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G847" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H847" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J847" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="K847" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L847" s="12">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="848">
-      <c r="A848" s="38"/>
-      <c r="B848" s="38"/>
-      <c r="C848" s="38"/>
-      <c r="D848" s="38"/>
-      <c r="E848" s="38"/>
-      <c r="F848" s="38"/>
-      <c r="G848" s="38"/>
-      <c r="H848" s="38"/>
-      <c r="I848" s="38"/>
-      <c r="J848" s="38"/>
-      <c r="K848" s="38"/>
-      <c r="L848" s="38"/>
+      <c r="A848" s="6">
+        <v>45726.44272005787</v>
+      </c>
+      <c r="B848" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="C848" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D848" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F848" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G848" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="H848" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I848" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="J848" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="849">
-      <c r="A849" s="38"/>
-      <c r="B849" s="38"/>
-      <c r="C849" s="38"/>
-      <c r="D849" s="38"/>
-      <c r="E849" s="38"/>
-      <c r="F849" s="38"/>
-      <c r="G849" s="38"/>
-      <c r="H849" s="38"/>
-      <c r="I849" s="38"/>
-      <c r="J849" s="38"/>
-      <c r="K849" s="38"/>
-      <c r="L849" s="38"/>
+      <c r="A849" s="9">
+        <v>45726.44859834491</v>
+      </c>
+      <c r="B849" s="10">
+        <v>45701.0</v>
+      </c>
+      <c r="C849" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D849" s="11">
+        <v>240.0</v>
+      </c>
+      <c r="F849" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G849" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="H849" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I849" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="J849" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="850">
-      <c r="A850" s="38"/>
-      <c r="B850" s="38"/>
-      <c r="C850" s="38"/>
-      <c r="D850" s="38"/>
-      <c r="E850" s="38"/>
-      <c r="F850" s="38"/>
-      <c r="G850" s="38"/>
-      <c r="H850" s="38"/>
-      <c r="I850" s="38"/>
-      <c r="J850" s="38"/>
-      <c r="K850" s="38"/>
-      <c r="L850" s="38"/>
+      <c r="A850" s="6">
+        <v>45726.45121331018</v>
+      </c>
+      <c r="B850" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="C850" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D850" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F850" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G850" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="H850" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I850" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="J850" s="8">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="851">
-      <c r="A851" s="38"/>
-      <c r="B851" s="38"/>
-      <c r="C851" s="38"/>
-      <c r="D851" s="38"/>
-      <c r="E851" s="38"/>
-      <c r="F851" s="38"/>
-      <c r="G851" s="38"/>
-      <c r="H851" s="38"/>
-      <c r="I851" s="38"/>
-      <c r="J851" s="38"/>
-      <c r="K851" s="38"/>
-      <c r="L851" s="38"/>
+      <c r="A851" s="9">
+        <v>45726.45186476852</v>
+      </c>
+      <c r="B851" s="10">
+        <v>45698.0</v>
+      </c>
+      <c r="C851" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D851" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F851" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G851" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="H851" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I851" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="J851" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="852">
-      <c r="A852" s="38"/>
-      <c r="B852" s="38"/>
-      <c r="C852" s="38"/>
-      <c r="D852" s="38"/>
-      <c r="E852" s="38"/>
-      <c r="F852" s="38"/>
-      <c r="G852" s="38"/>
-      <c r="H852" s="38"/>
-      <c r="I852" s="38"/>
-      <c r="J852" s="38"/>
-      <c r="K852" s="38"/>
-      <c r="L852" s="38"/>
+      <c r="A852" s="6">
+        <v>45726.45314886574</v>
+      </c>
+      <c r="B852" s="7">
+        <v>45699.0</v>
+      </c>
+      <c r="C852" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D852" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="E852" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F852" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G852" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H852" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I852" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J852" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="K852" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L852" s="13">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="853">
-      <c r="A853" s="38"/>
-      <c r="B853" s="38"/>
-      <c r="C853" s="38"/>
-      <c r="D853" s="38"/>
-      <c r="E853" s="38"/>
-      <c r="F853" s="38"/>
-      <c r="G853" s="38"/>
-      <c r="H853" s="38"/>
-      <c r="I853" s="38"/>
-      <c r="J853" s="38"/>
-      <c r="K853" s="38"/>
-      <c r="L853" s="38"/>
+      <c r="A853" s="9">
+        <v>45726.4542144213</v>
+      </c>
+      <c r="B853" s="10">
+        <v>45701.0</v>
+      </c>
+      <c r="C853" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D853" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F853" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G853" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H853" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I853" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J853" s="11">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="854">
-      <c r="A854" s="38"/>
-      <c r="B854" s="38"/>
-      <c r="C854" s="38"/>
-      <c r="D854" s="38"/>
-      <c r="E854" s="38"/>
-      <c r="F854" s="38"/>
-      <c r="G854" s="38"/>
-      <c r="H854" s="38"/>
-      <c r="I854" s="38"/>
-      <c r="J854" s="38"/>
-      <c r="K854" s="38"/>
-      <c r="L854" s="38"/>
+      <c r="A854" s="6">
+        <v>45726.45670040509</v>
+      </c>
+      <c r="B854" s="7">
+        <v>45703.0</v>
+      </c>
+      <c r="C854" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D854" s="8">
+        <v>420.0</v>
+      </c>
+      <c r="E854" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F854" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G854" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H854" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I854" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J854" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="K854" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="L854" s="13">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="855">
-      <c r="A855" s="38"/>
-      <c r="B855" s="38"/>
-      <c r="C855" s="38"/>
-      <c r="D855" s="38"/>
-      <c r="E855" s="38"/>
-      <c r="F855" s="38"/>
-      <c r="G855" s="38"/>
-      <c r="H855" s="38"/>
-      <c r="I855" s="38"/>
-      <c r="J855" s="38"/>
-      <c r="K855" s="38"/>
-      <c r="L855" s="38"/>
+      <c r="A855" s="9">
+        <v>45726.462490300924</v>
+      </c>
+      <c r="B855" s="10">
+        <v>45705.0</v>
+      </c>
+      <c r="C855" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D855" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F855" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G855" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H855" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I855" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J855" s="11">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="856">
-      <c r="A856" s="38"/>
-      <c r="B856" s="38"/>
-      <c r="C856" s="38"/>
-      <c r="D856" s="38"/>
-      <c r="E856" s="38"/>
-      <c r="F856" s="38"/>
-      <c r="G856" s="38"/>
-      <c r="H856" s="38"/>
-      <c r="I856" s="38"/>
-      <c r="J856" s="38"/>
-      <c r="K856" s="38"/>
-      <c r="L856" s="38"/>
+      <c r="A856" s="6">
+        <v>45726.46449115741</v>
+      </c>
+      <c r="B856" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="C856" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D856" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F856" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G856" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H856" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I856" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J856" s="8">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="857">
-      <c r="A857" s="38"/>
-      <c r="B857" s="38"/>
-      <c r="C857" s="38"/>
-      <c r="D857" s="38"/>
-      <c r="E857" s="38"/>
-      <c r="F857" s="38"/>
-      <c r="G857" s="38"/>
-      <c r="H857" s="38"/>
-      <c r="I857" s="38"/>
-      <c r="J857" s="38"/>
-      <c r="K857" s="38"/>
-      <c r="L857" s="38"/>
+      <c r="A857" s="9">
+        <v>45726.470106458335</v>
+      </c>
+      <c r="B857" s="10">
+        <v>45708.0</v>
+      </c>
+      <c r="C857" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D857" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="F857" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G857" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H857" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I857" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J857" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="858">
-      <c r="A858" s="38"/>
-      <c r="B858" s="38"/>
-      <c r="C858" s="38"/>
-      <c r="D858" s="38"/>
-      <c r="E858" s="38"/>
-      <c r="F858" s="38"/>
-      <c r="G858" s="38"/>
-      <c r="H858" s="38"/>
-      <c r="I858" s="38"/>
-      <c r="J858" s="38"/>
-      <c r="K858" s="38"/>
-      <c r="L858" s="38"/>
+      <c r="A858" s="6">
+        <v>45726.470877175925</v>
+      </c>
+      <c r="B858" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="C858" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D858" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="E858" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F858" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G858" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H858" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I858" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J858" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="K858" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L858" s="13">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="859">
-      <c r="A859" s="38"/>
-      <c r="B859" s="38"/>
-      <c r="C859" s="38"/>
-      <c r="D859" s="38"/>
-      <c r="E859" s="38"/>
-      <c r="F859" s="38"/>
-      <c r="G859" s="38"/>
-      <c r="H859" s="38"/>
-      <c r="I859" s="38"/>
-      <c r="J859" s="38"/>
-      <c r="K859" s="38"/>
-      <c r="L859" s="38"/>
+      <c r="A859" s="9">
+        <v>45726.47490376157</v>
+      </c>
+      <c r="B859" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="C859" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D859" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="E859" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F859" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G859" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H859" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I859" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J859" s="11">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="860">
-      <c r="A860" s="38"/>
-      <c r="B860" s="38"/>
-      <c r="C860" s="38"/>
-      <c r="D860" s="38"/>
-      <c r="E860" s="38"/>
-      <c r="F860" s="38"/>
-      <c r="G860" s="38"/>
-      <c r="H860" s="38"/>
-      <c r="I860" s="38"/>
-      <c r="J860" s="38"/>
-      <c r="K860" s="38"/>
-      <c r="L860" s="38"/>
+      <c r="A860" s="6">
+        <v>45726.475896041666</v>
+      </c>
+      <c r="B860" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="C860" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D860" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F860" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G860" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="H860" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I860" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="J860" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="861">
-      <c r="A861" s="38"/>
-      <c r="B861" s="38"/>
-      <c r="C861" s="38"/>
-      <c r="D861" s="38"/>
-      <c r="E861" s="38"/>
-      <c r="F861" s="38"/>
-      <c r="G861" s="38"/>
-      <c r="H861" s="38"/>
-      <c r="I861" s="38"/>
-      <c r="J861" s="38"/>
-      <c r="K861" s="38"/>
-      <c r="L861" s="38"/>
+      <c r="A861" s="9">
+        <v>45726.48179293981</v>
+      </c>
+      <c r="B861" s="10">
+        <v>45710.0</v>
+      </c>
+      <c r="C861" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D861" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="E861" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F861" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G861" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H861" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I861" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J861" s="11">
+        <v>90.0</v>
+      </c>
+      <c r="K861" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="L861" s="12">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="862">
-      <c r="A862" s="38"/>
-      <c r="B862" s="38"/>
-      <c r="C862" s="38"/>
-      <c r="D862" s="38"/>
-      <c r="E862" s="38"/>
-      <c r="F862" s="38"/>
-      <c r="G862" s="38"/>
-      <c r="H862" s="38"/>
-      <c r="I862" s="38"/>
-      <c r="J862" s="38"/>
-      <c r="K862" s="38"/>
-      <c r="L862" s="38"/>
+      <c r="A862" s="6">
+        <v>45726.488806828704</v>
+      </c>
+      <c r="B862" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="C862" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D862" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F862" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G862" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H862" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I862" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J862" s="8">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="863">
-      <c r="A863" s="38"/>
-      <c r="B863" s="38"/>
-      <c r="C863" s="38"/>
-      <c r="D863" s="38"/>
-      <c r="E863" s="38"/>
-      <c r="F863" s="38"/>
-      <c r="G863" s="38"/>
-      <c r="H863" s="38"/>
-      <c r="I863" s="38"/>
-      <c r="J863" s="38"/>
-      <c r="K863" s="38"/>
-      <c r="L863" s="38"/>
+      <c r="A863" s="9">
+        <v>45726.48966157407</v>
+      </c>
+      <c r="B863" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="C863" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D863" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="F863" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G863" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H863" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I863" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J863" s="11">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="864">
-      <c r="A864" s="38"/>
-      <c r="B864" s="38"/>
-      <c r="C864" s="38"/>
-      <c r="D864" s="38"/>
-      <c r="E864" s="38"/>
-      <c r="F864" s="38"/>
-      <c r="G864" s="38"/>
-      <c r="H864" s="38"/>
-      <c r="I864" s="38"/>
-      <c r="J864" s="38"/>
-      <c r="K864" s="38"/>
-      <c r="L864" s="38"/>
+      <c r="A864" s="6">
+        <v>45726.49077089121</v>
+      </c>
+      <c r="B864" s="7">
+        <v>45713.0</v>
+      </c>
+      <c r="C864" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D864" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="E864" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F864" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G864" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H864" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I864" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J864" s="8">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="865">
-      <c r="A865" s="38"/>
-      <c r="B865" s="38"/>
-      <c r="C865" s="38"/>
-      <c r="D865" s="38"/>
-      <c r="E865" s="38"/>
-      <c r="F865" s="38"/>
-      <c r="G865" s="38"/>
-      <c r="H865" s="38"/>
-      <c r="I865" s="38"/>
-      <c r="J865" s="38"/>
-      <c r="K865" s="38"/>
-      <c r="L865" s="38"/>
+      <c r="A865" s="9">
+        <v>45726.493528067134</v>
+      </c>
+      <c r="B865" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C865" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D865" s="11">
+        <v>240.0</v>
+      </c>
+      <c r="F865" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G865" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H865" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I865" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J865" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="K865" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L865" s="12">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="866">
-      <c r="A866" s="38"/>
-      <c r="B866" s="38"/>
-      <c r="C866" s="38"/>
-      <c r="D866" s="38"/>
-      <c r="E866" s="38"/>
-      <c r="F866" s="38"/>
-      <c r="G866" s="38"/>
-      <c r="H866" s="38"/>
-      <c r="I866" s="38"/>
-      <c r="J866" s="38"/>
-      <c r="K866" s="38"/>
-      <c r="L866" s="38"/>
+      <c r="A866" s="6">
+        <v>45726.49427388889</v>
+      </c>
+      <c r="B866" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="C866" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D866" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="F866" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G866" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H866" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I866" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J866" s="8">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="867">
-      <c r="A867" s="38"/>
-      <c r="B867" s="38"/>
-      <c r="C867" s="38"/>
-      <c r="D867" s="38"/>
-      <c r="E867" s="38"/>
-      <c r="F867" s="38"/>
-      <c r="G867" s="38"/>
-      <c r="H867" s="38"/>
-      <c r="I867" s="38"/>
-      <c r="J867" s="38"/>
-      <c r="K867" s="38"/>
-      <c r="L867" s="38"/>
+      <c r="A867" s="34">
+        <v>45726.49555346065</v>
+      </c>
+      <c r="B867" s="35">
+        <v>45716.0</v>
+      </c>
+      <c r="C867" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D867" s="36">
+        <v>60.0</v>
+      </c>
+      <c r="E867" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F867" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G867" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H867" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I867" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J867" s="36">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="868">
-      <c r="A868" s="38"/>
-      <c r="B868" s="38"/>
-      <c r="C868" s="38"/>
-      <c r="D868" s="38"/>
-      <c r="E868" s="38"/>
-      <c r="F868" s="38"/>
-      <c r="G868" s="38"/>
-      <c r="H868" s="38"/>
-      <c r="I868" s="38"/>
-      <c r="J868" s="38"/>
-      <c r="K868" s="38"/>
-      <c r="L868" s="38"/>
+      <c r="A868" s="37"/>
+      <c r="B868" s="37"/>
+      <c r="C868" s="37"/>
+      <c r="D868" s="37"/>
+      <c r="E868" s="37"/>
+      <c r="F868" s="37"/>
+      <c r="G868" s="37"/>
+      <c r="H868" s="37"/>
+      <c r="I868" s="37"/>
+      <c r="J868" s="37"/>
+      <c r="K868" s="37"/>
+      <c r="L868" s="37"/>
     </row>
     <row r="869">
-      <c r="A869" s="38"/>
-      <c r="B869" s="38"/>
-      <c r="C869" s="38"/>
-      <c r="D869" s="38"/>
-      <c r="E869" s="38"/>
-      <c r="F869" s="38"/>
-      <c r="G869" s="38"/>
-      <c r="H869" s="38"/>
-      <c r="I869" s="38"/>
-      <c r="J869" s="38"/>
-      <c r="K869" s="38"/>
-      <c r="L869" s="38"/>
+      <c r="A869" s="37"/>
+      <c r="B869" s="37"/>
+      <c r="C869" s="37"/>
+      <c r="D869" s="37"/>
+      <c r="E869" s="37"/>
+      <c r="F869" s="37"/>
+      <c r="G869" s="37"/>
+      <c r="H869" s="37"/>
+      <c r="I869" s="37"/>
+      <c r="J869" s="37"/>
+      <c r="K869" s="37"/>
+      <c r="L869" s="37"/>
     </row>
     <row r="870">
-      <c r="A870" s="38"/>
-      <c r="B870" s="38"/>
-      <c r="C870" s="38"/>
-      <c r="D870" s="38"/>
-      <c r="E870" s="38"/>
-      <c r="F870" s="38"/>
-      <c r="G870" s="38"/>
-      <c r="H870" s="38"/>
-      <c r="I870" s="38"/>
-      <c r="J870" s="38"/>
-      <c r="K870" s="38"/>
-      <c r="L870" s="38"/>
+      <c r="A870" s="37"/>
+      <c r="B870" s="37"/>
+      <c r="C870" s="37"/>
+      <c r="D870" s="37"/>
+      <c r="E870" s="37"/>
+      <c r="F870" s="37"/>
+      <c r="G870" s="37"/>
+      <c r="H870" s="37"/>
+      <c r="I870" s="37"/>
+      <c r="J870" s="37"/>
+      <c r="K870" s="37"/>
+      <c r="L870" s="37"/>
     </row>
     <row r="871">
-      <c r="A871" s="38"/>
-      <c r="B871" s="38"/>
-      <c r="C871" s="38"/>
-      <c r="D871" s="38"/>
-      <c r="E871" s="38"/>
-      <c r="F871" s="38"/>
-      <c r="G871" s="38"/>
-      <c r="H871" s="38"/>
-      <c r="I871" s="38"/>
-      <c r="J871" s="38"/>
-      <c r="K871" s="38"/>
-      <c r="L871" s="38"/>
+      <c r="A871" s="37"/>
+      <c r="B871" s="37"/>
+      <c r="C871" s="37"/>
+      <c r="D871" s="37"/>
+      <c r="E871" s="37"/>
+      <c r="F871" s="37"/>
+      <c r="G871" s="37"/>
+      <c r="H871" s="37"/>
+      <c r="I871" s="37"/>
+      <c r="J871" s="37"/>
+      <c r="K871" s="37"/>
+      <c r="L871" s="37"/>
     </row>
     <row r="872">
-      <c r="A872" s="38"/>
-      <c r="B872" s="38"/>
-      <c r="C872" s="38"/>
-      <c r="D872" s="38"/>
-      <c r="E872" s="38"/>
-      <c r="F872" s="38"/>
-      <c r="G872" s="38"/>
-      <c r="H872" s="38"/>
-      <c r="I872" s="38"/>
-      <c r="J872" s="38"/>
-      <c r="K872" s="38"/>
-      <c r="L872" s="38"/>
+      <c r="A872" s="37"/>
+      <c r="B872" s="37"/>
+      <c r="C872" s="37"/>
+      <c r="D872" s="37"/>
+      <c r="E872" s="37"/>
+      <c r="F872" s="37"/>
+      <c r="G872" s="37"/>
+      <c r="H872" s="37"/>
+      <c r="I872" s="37"/>
+      <c r="J872" s="37"/>
+      <c r="K872" s="37"/>
+      <c r="L872" s="37"/>
     </row>
     <row r="873">
-      <c r="A873" s="38"/>
-      <c r="B873" s="38"/>
-      <c r="C873" s="38"/>
-      <c r="D873" s="38"/>
-      <c r="E873" s="38"/>
-      <c r="F873" s="38"/>
-      <c r="G873" s="38"/>
-      <c r="H873" s="38"/>
-      <c r="I873" s="38"/>
-      <c r="J873" s="38"/>
-      <c r="K873" s="38"/>
-      <c r="L873" s="38"/>
+      <c r="A873" s="37"/>
+      <c r="B873" s="37"/>
+      <c r="C873" s="37"/>
+      <c r="D873" s="37"/>
+      <c r="E873" s="37"/>
+      <c r="F873" s="37"/>
+      <c r="G873" s="37"/>
+      <c r="H873" s="37"/>
+      <c r="I873" s="37"/>
+      <c r="J873" s="37"/>
+      <c r="K873" s="37"/>
+      <c r="L873" s="37"/>
     </row>
     <row r="874">
-      <c r="A874" s="38"/>
-      <c r="B874" s="38"/>
-      <c r="C874" s="38"/>
-      <c r="D874" s="38"/>
-      <c r="E874" s="38"/>
-      <c r="F874" s="38"/>
-      <c r="G874" s="38"/>
-      <c r="H874" s="38"/>
-      <c r="I874" s="38"/>
-      <c r="J874" s="38"/>
-      <c r="K874" s="38"/>
-      <c r="L874" s="38"/>
+      <c r="A874" s="37"/>
+      <c r="B874" s="37"/>
+      <c r="C874" s="37"/>
+      <c r="D874" s="37"/>
+      <c r="E874" s="37"/>
+      <c r="F874" s="37"/>
+      <c r="G874" s="37"/>
+      <c r="H874" s="37"/>
+      <c r="I874" s="37"/>
+      <c r="J874" s="37"/>
+      <c r="K874" s="37"/>
+      <c r="L874" s="37"/>
     </row>
     <row r="875">
-      <c r="A875" s="38"/>
-      <c r="B875" s="38"/>
-      <c r="C875" s="38"/>
-      <c r="D875" s="38"/>
-      <c r="E875" s="38"/>
-      <c r="F875" s="38"/>
-      <c r="G875" s="38"/>
-      <c r="H875" s="38"/>
-      <c r="I875" s="38"/>
-      <c r="J875" s="38"/>
-      <c r="K875" s="38"/>
-      <c r="L875" s="38"/>
+      <c r="A875" s="37"/>
+      <c r="B875" s="37"/>
+      <c r="C875" s="37"/>
+      <c r="D875" s="37"/>
+      <c r="E875" s="37"/>
+      <c r="F875" s="37"/>
+      <c r="G875" s="37"/>
+      <c r="H875" s="37"/>
+      <c r="I875" s="37"/>
+      <c r="J875" s="37"/>
+      <c r="K875" s="37"/>
+      <c r="L875" s="37"/>
     </row>
     <row r="876">
-      <c r="A876" s="38"/>
-      <c r="B876" s="38"/>
-      <c r="C876" s="38"/>
-      <c r="D876" s="38"/>
-      <c r="E876" s="38"/>
-      <c r="F876" s="38"/>
-      <c r="G876" s="38"/>
-      <c r="H876" s="38"/>
-      <c r="I876" s="38"/>
-      <c r="J876" s="38"/>
-      <c r="K876" s="38"/>
-      <c r="L876" s="38"/>
+      <c r="A876" s="37"/>
+      <c r="B876" s="37"/>
+      <c r="C876" s="37"/>
+      <c r="D876" s="37"/>
+      <c r="E876" s="37"/>
+      <c r="F876" s="37"/>
+      <c r="G876" s="37"/>
+      <c r="H876" s="37"/>
+      <c r="I876" s="37"/>
+      <c r="J876" s="37"/>
+      <c r="K876" s="37"/>
+      <c r="L876" s="37"/>
     </row>
     <row r="877">
-      <c r="A877" s="38"/>
-      <c r="B877" s="38"/>
-      <c r="C877" s="38"/>
-      <c r="D877" s="38"/>
-      <c r="E877" s="38"/>
-      <c r="F877" s="38"/>
-      <c r="G877" s="38"/>
-      <c r="H877" s="38"/>
-      <c r="I877" s="38"/>
-      <c r="J877" s="38"/>
-      <c r="K877" s="38"/>
-      <c r="L877" s="38"/>
+      <c r="A877" s="37"/>
+      <c r="B877" s="37"/>
+      <c r="C877" s="37"/>
+      <c r="D877" s="37"/>
+      <c r="E877" s="37"/>
+      <c r="F877" s="37"/>
+      <c r="G877" s="37"/>
+      <c r="H877" s="37"/>
+      <c r="I877" s="37"/>
+      <c r="J877" s="37"/>
+      <c r="K877" s="37"/>
+      <c r="L877" s="37"/>
     </row>
     <row r="878">
-      <c r="A878" s="38"/>
-      <c r="B878" s="38"/>
-      <c r="C878" s="38"/>
-      <c r="D878" s="38"/>
-      <c r="E878" s="38"/>
-      <c r="F878" s="38"/>
-      <c r="G878" s="38"/>
-      <c r="H878" s="38"/>
-      <c r="I878" s="38"/>
-      <c r="J878" s="38"/>
-      <c r="K878" s="38"/>
-      <c r="L878" s="38"/>
+      <c r="A878" s="37"/>
+      <c r="B878" s="37"/>
+      <c r="C878" s="37"/>
+      <c r="D878" s="37"/>
+      <c r="E878" s="37"/>
+      <c r="F878" s="37"/>
+      <c r="G878" s="37"/>
+      <c r="H878" s="37"/>
+      <c r="I878" s="37"/>
+      <c r="J878" s="37"/>
+      <c r="K878" s="37"/>
+      <c r="L878" s="37"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="37"/>
+      <c r="B879" s="37"/>
+      <c r="C879" s="37"/>
+      <c r="D879" s="37"/>
+      <c r="E879" s="37"/>
+      <c r="F879" s="37"/>
+      <c r="G879" s="37"/>
+      <c r="H879" s="37"/>
+      <c r="I879" s="37"/>
+      <c r="J879" s="37"/>
+      <c r="K879" s="37"/>
+      <c r="L879" s="37"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="37"/>
+      <c r="B880" s="37"/>
+      <c r="C880" s="37"/>
+      <c r="D880" s="37"/>
+      <c r="E880" s="37"/>
+      <c r="F880" s="37"/>
+      <c r="G880" s="37"/>
+      <c r="H880" s="37"/>
+      <c r="I880" s="37"/>
+      <c r="J880" s="37"/>
+      <c r="K880" s="37"/>
+      <c r="L880" s="37"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="37"/>
+      <c r="B881" s="37"/>
+      <c r="C881" s="37"/>
+      <c r="D881" s="37"/>
+      <c r="E881" s="37"/>
+      <c r="F881" s="37"/>
+      <c r="G881" s="37"/>
+      <c r="H881" s="37"/>
+      <c r="I881" s="37"/>
+      <c r="J881" s="37"/>
+      <c r="K881" s="37"/>
+      <c r="L881" s="37"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="37"/>
+      <c r="B882" s="37"/>
+      <c r="C882" s="37"/>
+      <c r="D882" s="37"/>
+      <c r="E882" s="37"/>
+      <c r="F882" s="37"/>
+      <c r="G882" s="37"/>
+      <c r="H882" s="37"/>
+      <c r="I882" s="37"/>
+      <c r="J882" s="37"/>
+      <c r="K882" s="37"/>
+      <c r="L882" s="37"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="37"/>
+      <c r="B883" s="37"/>
+      <c r="C883" s="37"/>
+      <c r="D883" s="37"/>
+      <c r="E883" s="37"/>
+      <c r="F883" s="37"/>
+      <c r="G883" s="37"/>
+      <c r="H883" s="37"/>
+      <c r="I883" s="37"/>
+      <c r="J883" s="37"/>
+      <c r="K883" s="37"/>
+      <c r="L883" s="37"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="37"/>
+      <c r="B884" s="37"/>
+      <c r="C884" s="37"/>
+      <c r="D884" s="37"/>
+      <c r="E884" s="37"/>
+      <c r="F884" s="37"/>
+      <c r="G884" s="37"/>
+      <c r="H884" s="37"/>
+      <c r="I884" s="37"/>
+      <c r="J884" s="37"/>
+      <c r="K884" s="37"/>
+      <c r="L884" s="37"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="37"/>
+      <c r="B885" s="37"/>
+      <c r="C885" s="37"/>
+      <c r="D885" s="37"/>
+      <c r="E885" s="37"/>
+      <c r="F885" s="37"/>
+      <c r="G885" s="37"/>
+      <c r="H885" s="37"/>
+      <c r="I885" s="37"/>
+      <c r="J885" s="37"/>
+      <c r="K885" s="37"/>
+      <c r="L885" s="37"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="37"/>
+      <c r="B886" s="37"/>
+      <c r="C886" s="37"/>
+      <c r="D886" s="37"/>
+      <c r="E886" s="37"/>
+      <c r="F886" s="37"/>
+      <c r="G886" s="37"/>
+      <c r="H886" s="37"/>
+      <c r="I886" s="37"/>
+      <c r="J886" s="37"/>
+      <c r="K886" s="37"/>
+      <c r="L886" s="37"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="37"/>
+      <c r="B887" s="37"/>
+      <c r="C887" s="37"/>
+      <c r="D887" s="37"/>
+      <c r="E887" s="37"/>
+      <c r="F887" s="37"/>
+      <c r="G887" s="37"/>
+      <c r="H887" s="37"/>
+      <c r="I887" s="37"/>
+      <c r="J887" s="37"/>
+      <c r="K887" s="37"/>
+      <c r="L887" s="37"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="37"/>
+      <c r="B888" s="37"/>
+      <c r="C888" s="37"/>
+      <c r="D888" s="37"/>
+      <c r="E888" s="37"/>
+      <c r="F888" s="37"/>
+      <c r="G888" s="37"/>
+      <c r="H888" s="37"/>
+      <c r="I888" s="37"/>
+      <c r="J888" s="37"/>
+      <c r="K888" s="37"/>
+      <c r="L888" s="37"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="37"/>
+      <c r="B889" s="37"/>
+      <c r="C889" s="37"/>
+      <c r="D889" s="37"/>
+      <c r="E889" s="37"/>
+      <c r="F889" s="37"/>
+      <c r="G889" s="37"/>
+      <c r="H889" s="37"/>
+      <c r="I889" s="37"/>
+      <c r="J889" s="37"/>
+      <c r="K889" s="37"/>
+      <c r="L889" s="37"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="37"/>
+      <c r="B890" s="37"/>
+      <c r="C890" s="37"/>
+      <c r="D890" s="37"/>
+      <c r="E890" s="37"/>
+      <c r="F890" s="37"/>
+      <c r="G890" s="37"/>
+      <c r="H890" s="37"/>
+      <c r="I890" s="37"/>
+      <c r="J890" s="37"/>
+      <c r="K890" s="37"/>
+      <c r="L890" s="37"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="37"/>
+      <c r="B891" s="37"/>
+      <c r="C891" s="37"/>
+      <c r="D891" s="37"/>
+      <c r="E891" s="37"/>
+      <c r="F891" s="37"/>
+      <c r="G891" s="37"/>
+      <c r="H891" s="37"/>
+      <c r="I891" s="37"/>
+      <c r="J891" s="37"/>
+      <c r="K891" s="37"/>
+      <c r="L891" s="37"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="37"/>
+      <c r="B892" s="37"/>
+      <c r="C892" s="37"/>
+      <c r="D892" s="37"/>
+      <c r="E892" s="37"/>
+      <c r="F892" s="37"/>
+      <c r="G892" s="37"/>
+      <c r="H892" s="37"/>
+      <c r="I892" s="37"/>
+      <c r="J892" s="37"/>
+      <c r="K892" s="37"/>
+      <c r="L892" s="37"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="37"/>
+      <c r="B893" s="37"/>
+      <c r="C893" s="37"/>
+      <c r="D893" s="37"/>
+      <c r="E893" s="37"/>
+      <c r="F893" s="37"/>
+      <c r="G893" s="37"/>
+      <c r="H893" s="37"/>
+      <c r="I893" s="37"/>
+      <c r="J893" s="37"/>
+      <c r="K893" s="37"/>
+      <c r="L893" s="37"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="37"/>
+      <c r="B894" s="37"/>
+      <c r="C894" s="37"/>
+      <c r="D894" s="37"/>
+      <c r="E894" s="37"/>
+      <c r="F894" s="37"/>
+      <c r="G894" s="37"/>
+      <c r="H894" s="37"/>
+      <c r="I894" s="37"/>
+      <c r="J894" s="37"/>
+      <c r="K894" s="37"/>
+      <c r="L894" s="37"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="37"/>
+      <c r="B895" s="37"/>
+      <c r="C895" s="37"/>
+      <c r="D895" s="37"/>
+      <c r="E895" s="37"/>
+      <c r="F895" s="37"/>
+      <c r="G895" s="37"/>
+      <c r="H895" s="37"/>
+      <c r="I895" s="37"/>
+      <c r="J895" s="37"/>
+      <c r="K895" s="37"/>
+      <c r="L895" s="37"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="37"/>
+      <c r="B896" s="37"/>
+      <c r="C896" s="37"/>
+      <c r="D896" s="37"/>
+      <c r="E896" s="37"/>
+      <c r="F896" s="37"/>
+      <c r="G896" s="37"/>
+      <c r="H896" s="37"/>
+      <c r="I896" s="37"/>
+      <c r="J896" s="37"/>
+      <c r="K896" s="37"/>
+      <c r="L896" s="37"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="37"/>
+      <c r="B897" s="37"/>
+      <c r="C897" s="37"/>
+      <c r="D897" s="37"/>
+      <c r="E897" s="37"/>
+      <c r="F897" s="37"/>
+      <c r="G897" s="37"/>
+      <c r="H897" s="37"/>
+      <c r="I897" s="37"/>
+      <c r="J897" s="37"/>
+      <c r="K897" s="37"/>
+      <c r="L897" s="37"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="37"/>
+      <c r="B898" s="37"/>
+      <c r="C898" s="37"/>
+      <c r="D898" s="37"/>
+      <c r="E898" s="37"/>
+      <c r="F898" s="37"/>
+      <c r="G898" s="37"/>
+      <c r="H898" s="37"/>
+      <c r="I898" s="37"/>
+      <c r="J898" s="37"/>
+      <c r="K898" s="37"/>
+      <c r="L898" s="37"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="37"/>
+      <c r="B899" s="37"/>
+      <c r="C899" s="37"/>
+      <c r="D899" s="37"/>
+      <c r="E899" s="37"/>
+      <c r="F899" s="37"/>
+      <c r="G899" s="37"/>
+      <c r="H899" s="37"/>
+      <c r="I899" s="37"/>
+      <c r="J899" s="37"/>
+      <c r="K899" s="37"/>
+      <c r="L899" s="37"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="37"/>
+      <c r="B900" s="37"/>
+      <c r="C900" s="37"/>
+      <c r="D900" s="37"/>
+      <c r="E900" s="37"/>
+      <c r="F900" s="37"/>
+      <c r="G900" s="37"/>
+      <c r="H900" s="37"/>
+      <c r="I900" s="37"/>
+      <c r="J900" s="37"/>
+      <c r="K900" s="37"/>
+      <c r="L900" s="37"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="37"/>
+      <c r="B901" s="37"/>
+      <c r="C901" s="37"/>
+      <c r="D901" s="37"/>
+      <c r="E901" s="37"/>
+      <c r="F901" s="37"/>
+      <c r="G901" s="37"/>
+      <c r="H901" s="37"/>
+      <c r="I901" s="37"/>
+      <c r="J901" s="37"/>
+      <c r="K901" s="37"/>
+      <c r="L901" s="37"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="37"/>
+      <c r="B902" s="37"/>
+      <c r="C902" s="37"/>
+      <c r="D902" s="37"/>
+      <c r="E902" s="37"/>
+      <c r="F902" s="37"/>
+      <c r="G902" s="37"/>
+      <c r="H902" s="37"/>
+      <c r="I902" s="37"/>
+      <c r="J902" s="37"/>
+      <c r="K902" s="37"/>
+      <c r="L902" s="37"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="37"/>
+      <c r="B903" s="37"/>
+      <c r="C903" s="37"/>
+      <c r="D903" s="37"/>
+      <c r="E903" s="37"/>
+      <c r="F903" s="37"/>
+      <c r="G903" s="37"/>
+      <c r="H903" s="37"/>
+      <c r="I903" s="37"/>
+      <c r="J903" s="37"/>
+      <c r="K903" s="37"/>
+      <c r="L903" s="37"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="37"/>
+      <c r="B904" s="37"/>
+      <c r="C904" s="37"/>
+      <c r="D904" s="37"/>
+      <c r="E904" s="37"/>
+      <c r="F904" s="37"/>
+      <c r="G904" s="37"/>
+      <c r="H904" s="37"/>
+      <c r="I904" s="37"/>
+      <c r="J904" s="37"/>
+      <c r="K904" s="37"/>
+      <c r="L904" s="37"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="37"/>
+      <c r="B905" s="37"/>
+      <c r="C905" s="37"/>
+      <c r="D905" s="37"/>
+      <c r="E905" s="37"/>
+      <c r="F905" s="37"/>
+      <c r="G905" s="37"/>
+      <c r="H905" s="37"/>
+      <c r="I905" s="37"/>
+      <c r="J905" s="37"/>
+      <c r="K905" s="37"/>
+      <c r="L905" s="37"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="37"/>
+      <c r="B906" s="37"/>
+      <c r="C906" s="37"/>
+      <c r="D906" s="37"/>
+      <c r="E906" s="37"/>
+      <c r="F906" s="37"/>
+      <c r="G906" s="37"/>
+      <c r="H906" s="37"/>
+      <c r="I906" s="37"/>
+      <c r="J906" s="37"/>
+      <c r="K906" s="37"/>
+      <c r="L906" s="37"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="37"/>
+      <c r="B907" s="37"/>
+      <c r="C907" s="37"/>
+      <c r="D907" s="37"/>
+      <c r="E907" s="37"/>
+      <c r="F907" s="37"/>
+      <c r="G907" s="37"/>
+      <c r="H907" s="37"/>
+      <c r="I907" s="37"/>
+      <c r="J907" s="37"/>
+      <c r="K907" s="37"/>
+      <c r="L907" s="37"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="37"/>
+      <c r="B908" s="37"/>
+      <c r="C908" s="37"/>
+      <c r="D908" s="37"/>
+      <c r="E908" s="37"/>
+      <c r="F908" s="37"/>
+      <c r="G908" s="37"/>
+      <c r="H908" s="37"/>
+      <c r="I908" s="37"/>
+      <c r="J908" s="37"/>
+      <c r="K908" s="37"/>
+      <c r="L908" s="37"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="37"/>
+      <c r="B909" s="37"/>
+      <c r="C909" s="37"/>
+      <c r="D909" s="37"/>
+      <c r="E909" s="37"/>
+      <c r="F909" s="37"/>
+      <c r="G909" s="37"/>
+      <c r="H909" s="37"/>
+      <c r="I909" s="37"/>
+      <c r="J909" s="37"/>
+      <c r="K909" s="37"/>
+      <c r="L909" s="37"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="37"/>
+      <c r="B910" s="37"/>
+      <c r="C910" s="37"/>
+      <c r="D910" s="37"/>
+      <c r="E910" s="37"/>
+      <c r="F910" s="37"/>
+      <c r="G910" s="37"/>
+      <c r="H910" s="37"/>
+      <c r="I910" s="37"/>
+      <c r="J910" s="37"/>
+      <c r="K910" s="37"/>
+      <c r="L910" s="37"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="37"/>
+      <c r="B911" s="37"/>
+      <c r="C911" s="37"/>
+      <c r="D911" s="37"/>
+      <c r="E911" s="37"/>
+      <c r="F911" s="37"/>
+      <c r="G911" s="37"/>
+      <c r="H911" s="37"/>
+      <c r="I911" s="37"/>
+      <c r="J911" s="37"/>
+      <c r="K911" s="37"/>
+      <c r="L911" s="37"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="37"/>
+      <c r="B912" s="37"/>
+      <c r="C912" s="37"/>
+      <c r="D912" s="37"/>
+      <c r="E912" s="37"/>
+      <c r="F912" s="37"/>
+      <c r="G912" s="37"/>
+      <c r="H912" s="37"/>
+      <c r="I912" s="37"/>
+      <c r="J912" s="37"/>
+      <c r="K912" s="37"/>
+      <c r="L912" s="37"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="37"/>
+      <c r="B913" s="37"/>
+      <c r="C913" s="37"/>
+      <c r="D913" s="37"/>
+      <c r="E913" s="37"/>
+      <c r="F913" s="37"/>
+      <c r="G913" s="37"/>
+      <c r="H913" s="37"/>
+      <c r="I913" s="37"/>
+      <c r="J913" s="37"/>
+      <c r="K913" s="37"/>
+      <c r="L913" s="37"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="37"/>
+      <c r="B914" s="37"/>
+      <c r="C914" s="37"/>
+      <c r="D914" s="37"/>
+      <c r="E914" s="37"/>
+      <c r="F914" s="37"/>
+      <c r="G914" s="37"/>
+      <c r="H914" s="37"/>
+      <c r="I914" s="37"/>
+      <c r="J914" s="37"/>
+      <c r="K914" s="37"/>
+      <c r="L914" s="37"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="37"/>
+      <c r="B915" s="37"/>
+      <c r="C915" s="37"/>
+      <c r="D915" s="37"/>
+      <c r="E915" s="37"/>
+      <c r="F915" s="37"/>
+      <c r="G915" s="37"/>
+      <c r="H915" s="37"/>
+      <c r="I915" s="37"/>
+      <c r="J915" s="37"/>
+      <c r="K915" s="37"/>
+      <c r="L915" s="37"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="37"/>
+      <c r="B916" s="37"/>
+      <c r="C916" s="37"/>
+      <c r="D916" s="37"/>
+      <c r="E916" s="37"/>
+      <c r="F916" s="37"/>
+      <c r="G916" s="37"/>
+      <c r="H916" s="37"/>
+      <c r="I916" s="37"/>
+      <c r="J916" s="37"/>
+      <c r="K916" s="37"/>
+      <c r="L916" s="37"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="37"/>
+      <c r="B917" s="37"/>
+      <c r="C917" s="37"/>
+      <c r="D917" s="37"/>
+      <c r="E917" s="37"/>
+      <c r="F917" s="37"/>
+      <c r="G917" s="37"/>
+      <c r="H917" s="37"/>
+      <c r="I917" s="37"/>
+      <c r="J917" s="37"/>
+      <c r="K917" s="37"/>
+      <c r="L917" s="37"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="37"/>
+      <c r="B918" s="37"/>
+      <c r="C918" s="37"/>
+      <c r="D918" s="37"/>
+      <c r="E918" s="37"/>
+      <c r="F918" s="37"/>
+      <c r="G918" s="37"/>
+      <c r="H918" s="37"/>
+      <c r="I918" s="37"/>
+      <c r="J918" s="37"/>
+      <c r="K918" s="37"/>
+      <c r="L918" s="37"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="37"/>
+      <c r="B919" s="37"/>
+      <c r="C919" s="37"/>
+      <c r="D919" s="37"/>
+      <c r="E919" s="37"/>
+      <c r="F919" s="37"/>
+      <c r="G919" s="37"/>
+      <c r="H919" s="37"/>
+      <c r="I919" s="37"/>
+      <c r="J919" s="37"/>
+      <c r="K919" s="37"/>
+      <c r="L919" s="37"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="37"/>
+      <c r="B920" s="37"/>
+      <c r="C920" s="37"/>
+      <c r="D920" s="37"/>
+      <c r="E920" s="37"/>
+      <c r="F920" s="37"/>
+      <c r="G920" s="37"/>
+      <c r="H920" s="37"/>
+      <c r="I920" s="37"/>
+      <c r="J920" s="37"/>
+      <c r="K920" s="37"/>
+      <c r="L920" s="37"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="37"/>
+      <c r="B921" s="37"/>
+      <c r="C921" s="37"/>
+      <c r="D921" s="37"/>
+      <c r="E921" s="37"/>
+      <c r="F921" s="37"/>
+      <c r="G921" s="37"/>
+      <c r="H921" s="37"/>
+      <c r="I921" s="37"/>
+      <c r="J921" s="37"/>
+      <c r="K921" s="37"/>
+      <c r="L921" s="37"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="37"/>
+      <c r="B922" s="37"/>
+      <c r="C922" s="37"/>
+      <c r="D922" s="37"/>
+      <c r="E922" s="37"/>
+      <c r="F922" s="37"/>
+      <c r="G922" s="37"/>
+      <c r="H922" s="37"/>
+      <c r="I922" s="37"/>
+      <c r="J922" s="37"/>
+      <c r="K922" s="37"/>
+      <c r="L922" s="37"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="37"/>
+      <c r="B923" s="37"/>
+      <c r="C923" s="37"/>
+      <c r="D923" s="37"/>
+      <c r="E923" s="37"/>
+      <c r="F923" s="37"/>
+      <c r="G923" s="37"/>
+      <c r="H923" s="37"/>
+      <c r="I923" s="37"/>
+      <c r="J923" s="37"/>
+      <c r="K923" s="37"/>
+      <c r="L923" s="37"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="37"/>
+      <c r="B924" s="37"/>
+      <c r="C924" s="37"/>
+      <c r="D924" s="37"/>
+      <c r="E924" s="37"/>
+      <c r="F924" s="37"/>
+      <c r="G924" s="37"/>
+      <c r="H924" s="37"/>
+      <c r="I924" s="37"/>
+      <c r="J924" s="37"/>
+      <c r="K924" s="37"/>
+      <c r="L924" s="37"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="37"/>
+      <c r="B925" s="37"/>
+      <c r="C925" s="37"/>
+      <c r="D925" s="37"/>
+      <c r="E925" s="37"/>
+      <c r="F925" s="37"/>
+      <c r="G925" s="37"/>
+      <c r="H925" s="37"/>
+      <c r="I925" s="37"/>
+      <c r="J925" s="37"/>
+      <c r="K925" s="37"/>
+      <c r="L925" s="37"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="37"/>
+      <c r="B926" s="37"/>
+      <c r="C926" s="37"/>
+      <c r="D926" s="37"/>
+      <c r="E926" s="37"/>
+      <c r="F926" s="37"/>
+      <c r="G926" s="37"/>
+      <c r="H926" s="37"/>
+      <c r="I926" s="37"/>
+      <c r="J926" s="37"/>
+      <c r="K926" s="37"/>
+      <c r="L926" s="37"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="37"/>
+      <c r="B927" s="37"/>
+      <c r="C927" s="37"/>
+      <c r="D927" s="37"/>
+      <c r="E927" s="37"/>
+      <c r="F927" s="37"/>
+      <c r="G927" s="37"/>
+      <c r="H927" s="37"/>
+      <c r="I927" s="37"/>
+      <c r="J927" s="37"/>
+      <c r="K927" s="37"/>
+      <c r="L927" s="37"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="37"/>
+      <c r="B928" s="37"/>
+      <c r="C928" s="37"/>
+      <c r="D928" s="37"/>
+      <c r="E928" s="37"/>
+      <c r="F928" s="37"/>
+      <c r="G928" s="37"/>
+      <c r="H928" s="37"/>
+      <c r="I928" s="37"/>
+      <c r="J928" s="37"/>
+      <c r="K928" s="37"/>
+      <c r="L928" s="37"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="37"/>
+      <c r="B929" s="37"/>
+      <c r="C929" s="37"/>
+      <c r="D929" s="37"/>
+      <c r="E929" s="37"/>
+      <c r="F929" s="37"/>
+      <c r="G929" s="37"/>
+      <c r="H929" s="37"/>
+      <c r="I929" s="37"/>
+      <c r="J929" s="37"/>
+      <c r="K929" s="37"/>
+      <c r="L929" s="37"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="37"/>
+      <c r="B930" s="37"/>
+      <c r="C930" s="37"/>
+      <c r="D930" s="37"/>
+      <c r="E930" s="37"/>
+      <c r="F930" s="37"/>
+      <c r="G930" s="37"/>
+      <c r="H930" s="37"/>
+      <c r="I930" s="37"/>
+      <c r="J930" s="37"/>
+      <c r="K930" s="37"/>
+      <c r="L930" s="37"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="37"/>
+      <c r="B931" s="37"/>
+      <c r="C931" s="37"/>
+      <c r="D931" s="37"/>
+      <c r="E931" s="37"/>
+      <c r="F931" s="37"/>
+      <c r="G931" s="37"/>
+      <c r="H931" s="37"/>
+      <c r="I931" s="37"/>
+      <c r="J931" s="37"/>
+      <c r="K931" s="37"/>
+      <c r="L931" s="37"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="37"/>
+      <c r="B932" s="37"/>
+      <c r="C932" s="37"/>
+      <c r="D932" s="37"/>
+      <c r="E932" s="37"/>
+      <c r="F932" s="37"/>
+      <c r="G932" s="37"/>
+      <c r="H932" s="37"/>
+      <c r="I932" s="37"/>
+      <c r="J932" s="37"/>
+      <c r="K932" s="37"/>
+      <c r="L932" s="37"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="37"/>
+      <c r="B933" s="37"/>
+      <c r="C933" s="37"/>
+      <c r="D933" s="37"/>
+      <c r="E933" s="37"/>
+      <c r="F933" s="37"/>
+      <c r="G933" s="37"/>
+      <c r="H933" s="37"/>
+      <c r="I933" s="37"/>
+      <c r="J933" s="37"/>
+      <c r="K933" s="37"/>
+      <c r="L933" s="37"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="37"/>
+      <c r="B934" s="37"/>
+      <c r="C934" s="37"/>
+      <c r="D934" s="37"/>
+      <c r="E934" s="37"/>
+      <c r="F934" s="37"/>
+      <c r="G934" s="37"/>
+      <c r="H934" s="37"/>
+      <c r="I934" s="37"/>
+      <c r="J934" s="37"/>
+      <c r="K934" s="37"/>
+      <c r="L934" s="37"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="37"/>
+      <c r="B935" s="37"/>
+      <c r="C935" s="37"/>
+      <c r="D935" s="37"/>
+      <c r="E935" s="37"/>
+      <c r="F935" s="37"/>
+      <c r="G935" s="37"/>
+      <c r="H935" s="37"/>
+      <c r="I935" s="37"/>
+      <c r="J935" s="37"/>
+      <c r="K935" s="37"/>
+      <c r="L935" s="37"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="37"/>
+      <c r="B936" s="37"/>
+      <c r="C936" s="37"/>
+      <c r="D936" s="37"/>
+      <c r="E936" s="37"/>
+      <c r="F936" s="37"/>
+      <c r="G936" s="37"/>
+      <c r="H936" s="37"/>
+      <c r="I936" s="37"/>
+      <c r="J936" s="37"/>
+      <c r="K936" s="37"/>
+      <c r="L936" s="37"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="37"/>
+      <c r="B937" s="37"/>
+      <c r="C937" s="37"/>
+      <c r="D937" s="37"/>
+      <c r="E937" s="37"/>
+      <c r="F937" s="37"/>
+      <c r="G937" s="37"/>
+      <c r="H937" s="37"/>
+      <c r="I937" s="37"/>
+      <c r="J937" s="37"/>
+      <c r="K937" s="37"/>
+      <c r="L937" s="37"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="37"/>
+      <c r="B938" s="37"/>
+      <c r="C938" s="37"/>
+      <c r="D938" s="37"/>
+      <c r="E938" s="37"/>
+      <c r="F938" s="37"/>
+      <c r="G938" s="37"/>
+      <c r="H938" s="37"/>
+      <c r="I938" s="37"/>
+      <c r="J938" s="37"/>
+      <c r="K938" s="37"/>
+      <c r="L938" s="37"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="37"/>
+      <c r="B939" s="37"/>
+      <c r="C939" s="37"/>
+      <c r="D939" s="37"/>
+      <c r="E939" s="37"/>
+      <c r="F939" s="37"/>
+      <c r="G939" s="37"/>
+      <c r="H939" s="37"/>
+      <c r="I939" s="37"/>
+      <c r="J939" s="37"/>
+      <c r="K939" s="37"/>
+      <c r="L939" s="37"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="37"/>
+      <c r="B940" s="37"/>
+      <c r="C940" s="37"/>
+      <c r="D940" s="37"/>
+      <c r="E940" s="37"/>
+      <c r="F940" s="37"/>
+      <c r="G940" s="37"/>
+      <c r="H940" s="37"/>
+      <c r="I940" s="37"/>
+      <c r="J940" s="37"/>
+      <c r="K940" s="37"/>
+      <c r="L940" s="37"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="37"/>
+      <c r="B941" s="37"/>
+      <c r="C941" s="37"/>
+      <c r="D941" s="37"/>
+      <c r="E941" s="37"/>
+      <c r="F941" s="37"/>
+      <c r="G941" s="37"/>
+      <c r="H941" s="37"/>
+      <c r="I941" s="37"/>
+      <c r="J941" s="37"/>
+      <c r="K941" s="37"/>
+      <c r="L941" s="37"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="37"/>
+      <c r="B942" s="37"/>
+      <c r="C942" s="37"/>
+      <c r="D942" s="37"/>
+      <c r="E942" s="37"/>
+      <c r="F942" s="37"/>
+      <c r="G942" s="37"/>
+      <c r="H942" s="37"/>
+      <c r="I942" s="37"/>
+      <c r="J942" s="37"/>
+      <c r="K942" s="37"/>
+      <c r="L942" s="37"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="37"/>
+      <c r="B943" s="37"/>
+      <c r="C943" s="37"/>
+      <c r="D943" s="37"/>
+      <c r="E943" s="37"/>
+      <c r="F943" s="37"/>
+      <c r="G943" s="37"/>
+      <c r="H943" s="37"/>
+      <c r="I943" s="37"/>
+      <c r="J943" s="37"/>
+      <c r="K943" s="37"/>
+      <c r="L943" s="37"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="37"/>
+      <c r="B944" s="37"/>
+      <c r="C944" s="37"/>
+      <c r="D944" s="37"/>
+      <c r="E944" s="37"/>
+      <c r="F944" s="37"/>
+      <c r="G944" s="37"/>
+      <c r="H944" s="37"/>
+      <c r="I944" s="37"/>
+      <c r="J944" s="37"/>
+      <c r="K944" s="37"/>
+      <c r="L944" s="37"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="37"/>
+      <c r="B945" s="37"/>
+      <c r="C945" s="37"/>
+      <c r="D945" s="37"/>
+      <c r="E945" s="37"/>
+      <c r="F945" s="37"/>
+      <c r="G945" s="37"/>
+      <c r="H945" s="37"/>
+      <c r="I945" s="37"/>
+      <c r="J945" s="37"/>
+      <c r="K945" s="37"/>
+      <c r="L945" s="37"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="37"/>
+      <c r="B946" s="37"/>
+      <c r="C946" s="37"/>
+      <c r="D946" s="37"/>
+      <c r="E946" s="37"/>
+      <c r="F946" s="37"/>
+      <c r="G946" s="37"/>
+      <c r="H946" s="37"/>
+      <c r="I946" s="37"/>
+      <c r="J946" s="37"/>
+      <c r="K946" s="37"/>
+      <c r="L946" s="37"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="37"/>
+      <c r="B947" s="37"/>
+      <c r="C947" s="37"/>
+      <c r="D947" s="37"/>
+      <c r="E947" s="37"/>
+      <c r="F947" s="37"/>
+      <c r="G947" s="37"/>
+      <c r="H947" s="37"/>
+      <c r="I947" s="37"/>
+      <c r="J947" s="37"/>
+      <c r="K947" s="37"/>
+      <c r="L947" s="37"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="37"/>
+      <c r="B948" s="37"/>
+      <c r="C948" s="37"/>
+      <c r="D948" s="37"/>
+      <c r="E948" s="37"/>
+      <c r="F948" s="37"/>
+      <c r="G948" s="37"/>
+      <c r="H948" s="37"/>
+      <c r="I948" s="37"/>
+      <c r="J948" s="37"/>
+      <c r="K948" s="37"/>
+      <c r="L948" s="37"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="37"/>
+      <c r="B949" s="37"/>
+      <c r="C949" s="37"/>
+      <c r="D949" s="37"/>
+      <c r="E949" s="37"/>
+      <c r="F949" s="37"/>
+      <c r="G949" s="37"/>
+      <c r="H949" s="37"/>
+      <c r="I949" s="37"/>
+      <c r="J949" s="37"/>
+      <c r="K949" s="37"/>
+      <c r="L949" s="37"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="37"/>
+      <c r="B950" s="37"/>
+      <c r="C950" s="37"/>
+      <c r="D950" s="37"/>
+      <c r="E950" s="37"/>
+      <c r="F950" s="37"/>
+      <c r="G950" s="37"/>
+      <c r="H950" s="37"/>
+      <c r="I950" s="37"/>
+      <c r="J950" s="37"/>
+      <c r="K950" s="37"/>
+      <c r="L950" s="37"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="37"/>
+      <c r="B951" s="37"/>
+      <c r="C951" s="37"/>
+      <c r="D951" s="37"/>
+      <c r="E951" s="37"/>
+      <c r="F951" s="37"/>
+      <c r="G951" s="37"/>
+      <c r="H951" s="37"/>
+      <c r="I951" s="37"/>
+      <c r="J951" s="37"/>
+      <c r="K951" s="37"/>
+      <c r="L951" s="37"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="37"/>
+      <c r="B952" s="37"/>
+      <c r="C952" s="37"/>
+      <c r="D952" s="37"/>
+      <c r="E952" s="37"/>
+      <c r="F952" s="37"/>
+      <c r="G952" s="37"/>
+      <c r="H952" s="37"/>
+      <c r="I952" s="37"/>
+      <c r="J952" s="37"/>
+      <c r="K952" s="37"/>
+      <c r="L952" s="37"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="37"/>
+      <c r="B953" s="37"/>
+      <c r="C953" s="37"/>
+      <c r="D953" s="37"/>
+      <c r="E953" s="37"/>
+      <c r="F953" s="37"/>
+      <c r="G953" s="37"/>
+      <c r="H953" s="37"/>
+      <c r="I953" s="37"/>
+      <c r="J953" s="37"/>
+      <c r="K953" s="37"/>
+      <c r="L953" s="37"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="37"/>
+      <c r="B954" s="37"/>
+      <c r="C954" s="37"/>
+      <c r="D954" s="37"/>
+      <c r="E954" s="37"/>
+      <c r="F954" s="37"/>
+      <c r="G954" s="37"/>
+      <c r="H954" s="37"/>
+      <c r="I954" s="37"/>
+      <c r="J954" s="37"/>
+      <c r="K954" s="37"/>
+      <c r="L954" s="37"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="37"/>
+      <c r="B955" s="37"/>
+      <c r="C955" s="37"/>
+      <c r="D955" s="37"/>
+      <c r="E955" s="37"/>
+      <c r="F955" s="37"/>
+      <c r="G955" s="37"/>
+      <c r="H955" s="37"/>
+      <c r="I955" s="37"/>
+      <c r="J955" s="37"/>
+      <c r="K955" s="37"/>
+      <c r="L955" s="37"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="37"/>
+      <c r="B956" s="37"/>
+      <c r="C956" s="37"/>
+      <c r="D956" s="37"/>
+      <c r="E956" s="37"/>
+      <c r="F956" s="37"/>
+      <c r="G956" s="37"/>
+      <c r="H956" s="37"/>
+      <c r="I956" s="37"/>
+      <c r="J956" s="37"/>
+      <c r="K956" s="37"/>
+      <c r="L956" s="37"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="37"/>
+      <c r="B957" s="37"/>
+      <c r="C957" s="37"/>
+      <c r="D957" s="37"/>
+      <c r="E957" s="37"/>
+      <c r="F957" s="37"/>
+      <c r="G957" s="37"/>
+      <c r="H957" s="37"/>
+      <c r="I957" s="37"/>
+      <c r="J957" s="37"/>
+      <c r="K957" s="37"/>
+      <c r="L957" s="37"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="37"/>
+      <c r="B958" s="37"/>
+      <c r="C958" s="37"/>
+      <c r="D958" s="37"/>
+      <c r="E958" s="37"/>
+      <c r="F958" s="37"/>
+      <c r="G958" s="37"/>
+      <c r="H958" s="37"/>
+      <c r="I958" s="37"/>
+      <c r="J958" s="37"/>
+      <c r="K958" s="37"/>
+      <c r="L958" s="37"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="37"/>
+      <c r="B959" s="37"/>
+      <c r="C959" s="37"/>
+      <c r="D959" s="37"/>
+      <c r="E959" s="37"/>
+      <c r="F959" s="37"/>
+      <c r="G959" s="37"/>
+      <c r="H959" s="37"/>
+      <c r="I959" s="37"/>
+      <c r="J959" s="37"/>
+      <c r="K959" s="37"/>
+      <c r="L959" s="37"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="37"/>
+      <c r="B960" s="37"/>
+      <c r="C960" s="37"/>
+      <c r="D960" s="37"/>
+      <c r="E960" s="37"/>
+      <c r="F960" s="37"/>
+      <c r="G960" s="37"/>
+      <c r="H960" s="37"/>
+      <c r="I960" s="37"/>
+      <c r="J960" s="37"/>
+      <c r="K960" s="37"/>
+      <c r="L960" s="37"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="37"/>
+      <c r="B961" s="37"/>
+      <c r="C961" s="37"/>
+      <c r="D961" s="37"/>
+      <c r="E961" s="37"/>
+      <c r="F961" s="37"/>
+      <c r="G961" s="37"/>
+      <c r="H961" s="37"/>
+      <c r="I961" s="37"/>
+      <c r="J961" s="37"/>
+      <c r="K961" s="37"/>
+      <c r="L961" s="37"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="37"/>
+      <c r="B962" s="37"/>
+      <c r="C962" s="37"/>
+      <c r="D962" s="37"/>
+      <c r="E962" s="37"/>
+      <c r="F962" s="37"/>
+      <c r="G962" s="37"/>
+      <c r="H962" s="37"/>
+      <c r="I962" s="37"/>
+      <c r="J962" s="37"/>
+      <c r="K962" s="37"/>
+      <c r="L962" s="37"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="37"/>
+      <c r="B963" s="37"/>
+      <c r="C963" s="37"/>
+      <c r="D963" s="37"/>
+      <c r="E963" s="37"/>
+      <c r="F963" s="37"/>
+      <c r="G963" s="37"/>
+      <c r="H963" s="37"/>
+      <c r="I963" s="37"/>
+      <c r="J963" s="37"/>
+      <c r="K963" s="37"/>
+      <c r="L963" s="37"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="37"/>
+      <c r="B964" s="37"/>
+      <c r="C964" s="37"/>
+      <c r="D964" s="37"/>
+      <c r="E964" s="37"/>
+      <c r="F964" s="37"/>
+      <c r="G964" s="37"/>
+      <c r="H964" s="37"/>
+      <c r="I964" s="37"/>
+      <c r="J964" s="37"/>
+      <c r="K964" s="37"/>
+      <c r="L964" s="37"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="37"/>
+      <c r="B965" s="37"/>
+      <c r="C965" s="37"/>
+      <c r="D965" s="37"/>
+      <c r="E965" s="37"/>
+      <c r="F965" s="37"/>
+      <c r="G965" s="37"/>
+      <c r="H965" s="37"/>
+      <c r="I965" s="37"/>
+      <c r="J965" s="37"/>
+      <c r="K965" s="37"/>
+      <c r="L965" s="37"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="37"/>
+      <c r="B966" s="37"/>
+      <c r="C966" s="37"/>
+      <c r="D966" s="37"/>
+      <c r="E966" s="37"/>
+      <c r="F966" s="37"/>
+      <c r="G966" s="37"/>
+      <c r="H966" s="37"/>
+      <c r="I966" s="37"/>
+      <c r="J966" s="37"/>
+      <c r="K966" s="37"/>
+      <c r="L966" s="37"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="37"/>
+      <c r="B967" s="37"/>
+      <c r="C967" s="37"/>
+      <c r="D967" s="37"/>
+      <c r="E967" s="37"/>
+      <c r="F967" s="37"/>
+      <c r="G967" s="37"/>
+      <c r="H967" s="37"/>
+      <c r="I967" s="37"/>
+      <c r="J967" s="37"/>
+      <c r="K967" s="37"/>
+      <c r="L967" s="37"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
